--- a/100runs/run017/NotionalETEOutput017.xlsx
+++ b/100runs/run017/NotionalETEOutput017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="20">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,34 +49,31 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
-  </si>
-  <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_398.MISSILE_SOMERSAULT_398</t>
+    <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_477.MISSILE_HELLMASKER_477</t>
+    <t>MISSILE_HIGHWIND_135.MISSILE_HIGHWIND_135</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_154.MISSILE_SOMERSAULT_154</t>
+    <t>MISSILE_BRAVER_479.MISSILE_BRAVER_479</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_491.MISSILE_BRAVER_491</t>
+    <t>MISSILE_SOMERSAULT_399.MISSILE_SOMERSAULT_399</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER</t>
   </si>
   <si>
     <t>MISSILE_SOMERSAULT</t>
-  </si>
-  <si>
-    <t>MISSILE_HELLMASKER</t>
-  </si>
-  <si>
-    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -434,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K213"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,28 +483,28 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>269.2548354417778</v>
+        <v>1116579.802283569</v>
       </c>
       <c r="G2">
-        <v>-75.97175946396736</v>
+        <v>4841126.979707165</v>
       </c>
       <c r="H2">
-        <v>1097.146194727871</v>
+        <v>3985233.358992777</v>
       </c>
       <c r="I2">
-        <v>-1024.003952729355</v>
+        <v>1114862.665234161</v>
       </c>
       <c r="J2">
-        <v>1802.663711340033</v>
+        <v>4843224.355604079</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984366.479594582</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -521,28 +518,28 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>269.2548354417778</v>
+        <v>1116579.802283569</v>
       </c>
       <c r="G3">
-        <v>-75.97175946396736</v>
+        <v>4841126.979707165</v>
       </c>
       <c r="H3">
-        <v>1097.146194727871</v>
+        <v>3985233.358992777</v>
       </c>
       <c r="I3">
-        <v>-1003.78738804894</v>
+        <v>1114892.279265364</v>
       </c>
       <c r="J3">
-        <v>1758.812485034622</v>
+        <v>4843175.704004984</v>
       </c>
       <c r="K3">
-        <v>214.490504443034</v>
+        <v>3984670.27529365</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -556,28 +553,28 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>269.2548354417778</v>
+        <v>1116579.802283569</v>
       </c>
       <c r="G4">
-        <v>-75.97175946396736</v>
+        <v>4841126.979707165</v>
       </c>
       <c r="H4">
-        <v>1097.146194727871</v>
+        <v>3985233.358992777</v>
       </c>
       <c r="I4">
-        <v>-983.0730090621686</v>
+        <v>1114922.622514841</v>
       </c>
       <c r="J4">
-        <v>1714.961258729211</v>
+        <v>4843127.052405889</v>
       </c>
       <c r="K4">
-        <v>418.2855291453623</v>
+        <v>3984958.922346613</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -591,28 +588,28 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>269.2548354417778</v>
+        <v>1116579.802283569</v>
       </c>
       <c r="G5">
-        <v>-75.97175946396736</v>
+        <v>4841126.979707165</v>
       </c>
       <c r="H5">
-        <v>1097.146194727871</v>
+        <v>3985233.358992777</v>
       </c>
       <c r="I5">
-        <v>-961.848557549727</v>
+        <v>1114953.712938922</v>
       </c>
       <c r="J5">
-        <v>1671.1100324238</v>
+        <v>4843078.400806796</v>
       </c>
       <c r="K5">
-        <v>611.3850741069864</v>
+        <v>3985232.42075347</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -626,28 +623,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>269.2548354417778</v>
+        <v>1116579.802283569</v>
       </c>
       <c r="G6">
-        <v>-75.97175946396736</v>
+        <v>4841126.979707165</v>
       </c>
       <c r="H6">
-        <v>1097.146194727871</v>
+        <v>3985233.358992777</v>
       </c>
       <c r="I6">
-        <v>-940.1014734449292</v>
+        <v>1114985.568936092</v>
       </c>
       <c r="J6">
-        <v>1627.258806118389</v>
+        <v>4843029.749207702</v>
       </c>
       <c r="K6">
-        <v>793.7891393279051</v>
+        <v>3985490.770514223</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -661,28 +658,28 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>269.2548354417778</v>
+        <v>1116579.802283569</v>
       </c>
       <c r="G7">
-        <v>-75.97175946396736</v>
+        <v>4841126.979707165</v>
       </c>
       <c r="H7">
-        <v>1097.146194727871</v>
+        <v>3985233.358992777</v>
       </c>
       <c r="I7">
-        <v>-917.8188874010009</v>
+        <v>1115018.209357886</v>
       </c>
       <c r="J7">
-        <v>1583.407579812977</v>
+        <v>4842981.097608608</v>
       </c>
       <c r="K7">
-        <v>965.4977248081198</v>
+        <v>3985733.971628871</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -696,28 +693,28 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>269.2548354417778</v>
+        <v>1116579.802283569</v>
       </c>
       <c r="G8">
-        <v>-75.97175946396736</v>
+        <v>4841126.979707165</v>
       </c>
       <c r="H8">
-        <v>1097.146194727871</v>
+        <v>3985233.358992777</v>
       </c>
       <c r="I8">
-        <v>-894.9876131753442</v>
+        <v>1115051.653520038</v>
       </c>
       <c r="J8">
-        <v>1539.556353507566</v>
+        <v>4842932.446009513</v>
       </c>
       <c r="K8">
-        <v>1126.510830547629</v>
+        <v>3985962.024097414</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -731,28 +728,28 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>269.2548354417778</v>
+        <v>1116579.802283569</v>
       </c>
       <c r="G9">
-        <v>-75.97175946396736</v>
+        <v>4841126.979707165</v>
       </c>
       <c r="H9">
-        <v>1097.146194727871</v>
+        <v>3985233.358992777</v>
       </c>
       <c r="I9">
-        <v>-871.594139826268</v>
+        <v>1115085.921213914</v>
       </c>
       <c r="J9">
-        <v>1495.705127202155</v>
+        <v>4842883.794410419</v>
       </c>
       <c r="K9">
-        <v>1276.828456546434</v>
+        <v>3986174.927919852</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -766,28 +763,28 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>269.2548354417778</v>
+        <v>1116579.802283569</v>
       </c>
       <c r="G10">
-        <v>-63.42668351212589</v>
+        <v>4841143.492534618</v>
       </c>
       <c r="H10">
-        <v>1097.146194727871</v>
+        <v>3985233.358992777</v>
       </c>
       <c r="I10">
-        <v>-847.6246237175717</v>
+        <v>1115121.032718227</v>
       </c>
       <c r="J10">
-        <v>1451.853900896744</v>
+        <v>4842835.142811325</v>
       </c>
       <c r="K10">
-        <v>1416.450602804533</v>
+        <v>3986372.683096184</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,28 +798,28 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>208.9731626183978</v>
+        <v>1116531.12166319</v>
       </c>
       <c r="G11">
-        <v>-50.88160756028442</v>
+        <v>4841160.00536207</v>
       </c>
       <c r="H11">
-        <v>1351.676729146755</v>
+        <v>3985432.613651074</v>
       </c>
       <c r="I11">
-        <v>-823.0648803262491</v>
+        <v>1115157.008811031</v>
       </c>
       <c r="J11">
-        <v>1408.002674591333</v>
+        <v>4842786.491212231</v>
       </c>
       <c r="K11">
-        <v>1545.377269321928</v>
+        <v>3986555.289626412</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -836,28 +833,28 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>173.5607038898122</v>
+        <v>1116502.524240801</v>
       </c>
       <c r="G12">
-        <v>-38.33653160844296</v>
+        <v>4841176.518189522</v>
       </c>
       <c r="H12">
-        <v>1503.288132632359</v>
+        <v>3985551.299915826</v>
       </c>
       <c r="I12">
-        <v>-797.9003758484648</v>
+        <v>1115193.870782024</v>
       </c>
       <c r="J12">
-        <v>1364.151448285922</v>
+        <v>4842737.839613136</v>
       </c>
       <c r="K12">
-        <v>1663.608456098618</v>
+        <v>3986722.747510535</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -871,28 +868,28 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>151.2057619509107</v>
+        <v>1116484.471449776</v>
       </c>
       <c r="G13">
-        <v>-25.79145565660149</v>
+        <v>4841193.031016976</v>
       </c>
       <c r="H13">
-        <v>1611.634555680494</v>
+        <v>3985636.116967547</v>
       </c>
       <c r="I13">
-        <v>-772.1162185988343</v>
+        <v>1115231.64044514</v>
       </c>
       <c r="J13">
-        <v>1320.30022198051</v>
+        <v>4842689.188014043</v>
       </c>
       <c r="K13">
-        <v>1771.144163134604</v>
+        <v>3986875.056748552</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -906,28 +903,28 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>135.6155161867575</v>
+        <v>1116471.881506596</v>
       </c>
       <c r="G14">
-        <v>-13.24637970476002</v>
+        <v>4841209.543844428</v>
       </c>
       <c r="H14">
-        <v>1696.003857261439</v>
+        <v>3985702.16396028</v>
       </c>
       <c r="I14">
-        <v>-745.6971501979218</v>
+        <v>1115270.340151462</v>
       </c>
       <c r="J14">
-        <v>1276.448995675099</v>
+        <v>4842640.536414948</v>
       </c>
       <c r="K14">
-        <v>1867.984390429884</v>
+        <v>3987012.217340465</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -941,28 +938,28 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>123.9847259721077</v>
+        <v>1116462.489031957</v>
       </c>
       <c r="G15">
-        <v>-0.7013037529185659</v>
+        <v>4841226.056671881</v>
       </c>
       <c r="H15">
-        <v>1765.108859535785</v>
+        <v>3985756.261570401</v>
       </c>
       <c r="I15">
-        <v>-718.627536542734</v>
+        <v>1115309.99280245</v>
       </c>
       <c r="J15">
-        <v>1232.597769369688</v>
+        <v>4842591.884815854</v>
       </c>
       <c r="K15">
-        <v>1954.129137984459</v>
+        <v>3987134.229286273</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -976,28 +973,28 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>114.8910722159528</v>
+        <v>1116455.14542841</v>
       </c>
       <c r="G16">
-        <v>11.8437721989229</v>
+        <v>4841242.569499333</v>
       </c>
       <c r="H16">
-        <v>1823.635752041482</v>
+        <v>3985802.07829724</v>
       </c>
       <c r="I16">
-        <v>-690.8913585548752</v>
+        <v>1115350.621863488</v>
       </c>
       <c r="J16">
-        <v>1188.746543064277</v>
+        <v>4842543.23321676</v>
       </c>
       <c r="K16">
-        <v>2029.57840579833</v>
+        <v>3987241.092585976</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1011,28 +1008,28 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>107.5336441965823</v>
+        <v>1116449.203918436</v>
       </c>
       <c r="G17">
-        <v>24.38884815076437</v>
+        <v>4841259.082326787</v>
       </c>
       <c r="H17">
-        <v>1874.397171954494</v>
+        <v>3985841.815963302</v>
       </c>
       <c r="I17">
-        <v>-662.472202700881</v>
+        <v>1115392.251377776</v>
       </c>
       <c r="J17">
-        <v>1144.895316758866</v>
+        <v>4842494.581617665</v>
       </c>
       <c r="K17">
-        <v>2094.332193871496</v>
+        <v>3987332.807239573</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1046,28 +1043,28 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>101.4243573420366</v>
+        <v>1116444.270348078</v>
       </c>
       <c r="G18">
-        <v>36.93392410260583</v>
+        <v>4841275.595154239</v>
       </c>
       <c r="H18">
-        <v>1919.214482707443</v>
+        <v>3985876.900390246</v>
       </c>
       <c r="I18">
-        <v>-633.3532512791264</v>
+        <v>1115434.905980556</v>
       </c>
       <c r="J18">
-        <v>1101.044090453455</v>
+        <v>4842445.930018571</v>
       </c>
       <c r="K18">
-        <v>2148.390502203957</v>
+        <v>3987409.373247066</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1081,28 +1078,28 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>96.24719639953098</v>
+        <v>1116440.089518405</v>
       </c>
       <c r="G19">
-        <v>49.47900005444731</v>
+        <v>4841292.107981691</v>
       </c>
       <c r="H19">
-        <v>1959.334994368524</v>
+        <v>3985908.308012362</v>
       </c>
       <c r="I19">
-        <v>-603.5172724675549</v>
+        <v>1115478.610913687</v>
       </c>
       <c r="J19">
-        <v>1057.192864148043</v>
+        <v>4842397.278419478</v>
       </c>
       <c r="K19">
-        <v>2191.753330795713</v>
+        <v>3987470.790608453</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1116,28 +1113,28 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>91.78757733328031</v>
+        <v>1116436.488141525</v>
       </c>
       <c r="G20">
-        <v>62.02407600628877</v>
+        <v>4841308.620809144</v>
       </c>
       <c r="H20">
-        <v>1995.650429462509</v>
+        <v>3985936.736898613</v>
       </c>
       <c r="I20">
-        <v>-572.9466101263457</v>
+        <v>1115523.392040588</v>
       </c>
       <c r="J20">
-        <v>1013.341637842632</v>
+        <v>4842348.626820383</v>
       </c>
       <c r="K20">
-        <v>2224.420679646764</v>
+        <v>3987517.059323736</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1151,28 +1148,28 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>87.89409945219161</v>
+        <v>1116433.343953419</v>
       </c>
       <c r="G21">
-        <v>74.56915195813022</v>
+        <v>4841325.133636598</v>
       </c>
       <c r="H21">
-        <v>2028.820432846439</v>
+        <v>3985962.703440133</v>
       </c>
       <c r="I21">
-        <v>-541.6231733494781</v>
+        <v>1115569.275861542</v>
       </c>
       <c r="J21">
-        <v>969.4904115372209</v>
+        <v>4842299.975221288</v>
       </c>
       <c r="K21">
-        <v>2246.392548757111</v>
+        <v>3987548.179392914</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1186,28 +1183,28 @@
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>84.45652647372806</v>
+        <v>1116430.567932493</v>
       </c>
       <c r="G22">
-        <v>87.1142279099717</v>
+        <v>4841341.64646405</v>
       </c>
       <c r="H22">
-        <v>2059.34671528502</v>
+        <v>3985986.600392183</v>
       </c>
       <c r="I22">
-        <v>-509.5284257590133</v>
+        <v>1115616.289529375</v>
       </c>
       <c r="J22">
-        <v>925.6391852318098</v>
+        <v>4842251.323622195</v>
       </c>
       <c r="K22">
-        <v>2257.668938126752</v>
+        <v>3987564.150815986</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1221,28 +1218,28 @@
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>81.39245637432246</v>
+        <v>1116428.093534781</v>
       </c>
       <c r="G23">
-        <v>99.65930386181317</v>
+        <v>4841358.159291503</v>
       </c>
       <c r="H23">
-        <v>2087.619765629641</v>
+        <v>3986008.73344195</v>
       </c>
       <c r="I23">
-        <v>-476.6433745357597</v>
+        <v>1115664.460865526</v>
       </c>
       <c r="J23">
-        <v>881.7879589263986</v>
+        <v>4842202.672023101</v>
       </c>
       <c r="K23">
-        <v>2258.249847755689</v>
+        <v>3987564.973592954</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1256,28 +1253,28 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>78.63890548448191</v>
+        <v>1116425.869897658</v>
       </c>
       <c r="G24">
-        <v>112.2043798136546</v>
+        <v>4841374.672118955</v>
       </c>
       <c r="H24">
-        <v>2113.949475701278</v>
+        <v>3986029.345182681</v>
       </c>
       <c r="I24">
-        <v>-442.948559179826</v>
+        <v>1115713.818376513</v>
       </c>
       <c r="J24">
-        <v>837.9367326209873</v>
+        <v>4842154.020424006</v>
       </c>
       <c r="K24">
-        <v>2248.135277643921</v>
+        <v>3987550.647723816</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1291,28 +1288,28 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>76.14680305400438</v>
+        <v>1116423.857393912</v>
       </c>
       <c r="G25">
-        <v>124.7494557654961</v>
+        <v>4841391.184946408</v>
       </c>
       <c r="H25">
-        <v>2138.585899978874</v>
+        <v>3986048.631365033</v>
       </c>
       <c r="I25">
-        <v>-408.4240399944138</v>
+        <v>1115764.3912708</v>
       </c>
       <c r="J25">
-        <v>794.0855063155763</v>
+        <v>4842105.368824912</v>
       </c>
       <c r="K25">
-        <v>2227.325227791448</v>
+        <v>3987521.173208573</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1326,28 +1323,28 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>73.87727846196945</v>
+        <v>1116422.024633473</v>
       </c>
       <c r="G26">
-        <v>137.2945317173376</v>
+        <v>4841407.697773861</v>
       </c>
       <c r="H26">
-        <v>2161.733733809564</v>
+        <v>3986066.752231085</v>
       </c>
       <c r="I26">
-        <v>-373.0493862860362</v>
+        <v>1115816.209476082</v>
       </c>
       <c r="J26">
-        <v>750.234280010165</v>
+        <v>4842056.717225818</v>
       </c>
       <c r="K26">
-        <v>2195.819698198271</v>
+        <v>3987476.550047226</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1361,28 +1358,28 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>71.79909046674717</v>
+        <v>1116420.346387397</v>
       </c>
       <c r="G27">
-        <v>149.839607669179</v>
+        <v>4841424.210601313</v>
       </c>
       <c r="H27">
-        <v>2183.562661354035</v>
+        <v>3986083.840615033</v>
       </c>
       <c r="I27">
-        <v>-336.8036642741747</v>
+        <v>1115869.303656998</v>
       </c>
       <c r="J27">
-        <v>706.3830537047537</v>
+        <v>4842008.065626723</v>
       </c>
       <c r="K27">
-        <v>2153.618688864388</v>
+        <v>3987416.778239774</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1396,28 +1393,28 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>69.88680568632259</v>
+        <v>1116418.80211689</v>
       </c>
       <c r="G28">
-        <v>162.3846836210205</v>
+        <v>4841440.723428766</v>
       </c>
       <c r="H28">
-        <v>2204.214911183831</v>
+        <v>3986100.007857963</v>
       </c>
       <c r="I28">
-        <v>-299.6654247032239</v>
+        <v>1115923.705233273</v>
       </c>
       <c r="J28">
-        <v>662.5318273993427</v>
+        <v>4841959.414027629</v>
       </c>
       <c r="K28">
-        <v>2100.7221997898</v>
+        <v>3987341.857786216</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1431,28 +1428,28 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>68.11948143370266</v>
+        <v>1116417.374909631</v>
       </c>
       <c r="G29">
-        <v>174.929759572862</v>
+        <v>4841457.236256219</v>
       </c>
       <c r="H29">
-        <v>2223.810877619872</v>
+        <v>3986115.348208405</v>
       </c>
       <c r="I29">
-        <v>-261.612690149392</v>
+        <v>1115979.446398315</v>
       </c>
       <c r="J29">
-        <v>618.6806010939314</v>
+        <v>4841910.762428535</v>
       </c>
       <c r="K29">
-        <v>2037.130230974508</v>
+        <v>3987251.788686554</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1466,28 +1463,28 @@
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>66.47969589170728</v>
+        <v>1116416.050696587</v>
       </c>
       <c r="G30">
-        <v>187.4748355247034</v>
+        <v>4841473.749083671</v>
       </c>
       <c r="H30">
-        <v>2242.453373193196</v>
+        <v>3986129.942151304</v>
       </c>
       <c r="I30">
-        <v>-222.622942015046</v>
+        <v>1116036.560138266</v>
       </c>
       <c r="J30">
-        <v>574.8293747885202</v>
+        <v>4841862.110829441</v>
       </c>
       <c r="K30">
-        <v>1962.842782418511</v>
+        <v>3987146.570940787</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1501,28 +1498,28 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>64.95282239955992</v>
+        <v>1116414.81766596</v>
       </c>
       <c r="G31">
-        <v>200.0199114765449</v>
+        <v>4841490.261911124</v>
       </c>
       <c r="H31">
-        <v>2260.23089372915</v>
+        <v>3986143.858964026</v>
       </c>
       <c r="I31">
-        <v>-182.6731072028024</v>
+        <v>1116095.080251519</v>
       </c>
       <c r="J31">
-        <v>530.9781484831091</v>
+        <v>4841813.459230347</v>
       </c>
       <c r="K31">
-        <v>1877.859854121809</v>
+        <v>3987026.204548914</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1536,28 +1533,28 @@
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>63.52647845385996</v>
+        <v>1116413.665818228</v>
       </c>
       <c r="G32">
-        <v>212.5649874283864</v>
+        <v>4841506.774738577</v>
       </c>
       <c r="H32">
-        <v>2277.220158999463</v>
+        <v>3986157.158705269</v>
       </c>
       <c r="I32">
-        <v>-141.7395444614814</v>
+        <v>1116155.041368724</v>
       </c>
       <c r="J32">
-        <v>487.1269221776978</v>
+        <v>4841764.807631252</v>
       </c>
       <c r="K32">
-        <v>1782.181446084402</v>
+        <v>3986890.689510936</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1571,28 +1568,28 @@
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>62.1901018244157</v>
+        <v>1116412.586623834</v>
       </c>
       <c r="G33">
-        <v>225.1100633802278</v>
+        <v>4841523.287566029</v>
       </c>
       <c r="H33">
-        <v>2293.488113652449</v>
+        <v>3986169.893781448</v>
       </c>
       <c r="I33">
-        <v>-99.79803039584233</v>
+        <v>1116216.478973276</v>
       </c>
       <c r="J33">
-        <v>443.2756958722868</v>
+        <v>4841716.156032158</v>
       </c>
       <c r="K33">
-        <v>1675.807558306291</v>
+        <v>3986740.025826854</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1606,28 +1603,28 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>60.9346205394142</v>
+        <v>1116411.572756684</v>
       </c>
       <c r="G34">
-        <v>237.6551393320693</v>
+        <v>4841539.800393483</v>
       </c>
       <c r="H34">
-        <v>2309.093520418718</v>
+        <v>3986182.110193911</v>
       </c>
       <c r="I34">
-        <v>-56.82374513182226</v>
+        <v>1116279.429422319</v>
       </c>
       <c r="J34">
-        <v>399.4244695668755</v>
+        <v>4841667.504433065</v>
       </c>
       <c r="K34">
-        <v>1558.738190787474</v>
+        <v>3986574.213496666</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1641,28 +1638,28 @@
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>59.75219313458133</v>
+        <v>1116410.617884383</v>
       </c>
       <c r="G35">
-        <v>250.2002152839108</v>
+        <v>4841556.313220935</v>
       </c>
       <c r="H35">
-        <v>2324.08824139788</v>
+        <v>3986193.848541971</v>
       </c>
       <c r="I35">
-        <v>-12.79125762879341</v>
+        <v>1116343.929968256</v>
       </c>
       <c r="J35">
-        <v>355.5732432614643</v>
+        <v>4841618.85283397</v>
       </c>
       <c r="K35">
-        <v>1430.973343527952</v>
+        <v>3986393.252520373</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1676,28 +1673,28 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>58.63600215233137</v>
+        <v>1116409.716501476</v>
       </c>
       <c r="G36">
-        <v>262.7452912357522</v>
+        <v>4841572.826048387</v>
       </c>
       <c r="H36">
-        <v>2338.518277954522</v>
+        <v>3986205.144836971</v>
       </c>
       <c r="I36">
-        <v>32.32548936985195</v>
+        <v>1116410.018780798</v>
       </c>
       <c r="J36">
-        <v>311.7220169560532</v>
+        <v>4841570.201234875</v>
       </c>
       <c r="K36">
-        <v>1292.513016527726</v>
+        <v>3986197.142897976</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1711,28 +1708,28 @@
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>57.58008845804164</v>
+        <v>1116408.863795649</v>
       </c>
       <c r="G37">
-        <v>275.2903671875937</v>
+        <v>4841589.33887584</v>
       </c>
       <c r="H37">
-        <v>2352.424621820413</v>
+        <v>3986216.031168552</v>
       </c>
       <c r="I37">
-        <v>78.55319475669273</v>
+        <v>1116477.734969547</v>
       </c>
       <c r="J37">
-        <v>267.8707906506419</v>
+        <v>4841521.549635782</v>
       </c>
       <c r="K37">
-        <v>1143.357209786795</v>
+        <v>3985985.884629474</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1746,28 +1743,28 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>56.57921717268918</v>
+        <v>1116408.055539461</v>
       </c>
       <c r="G38">
-        <v>287.8354431394351</v>
+        <v>4841605.851703293</v>
       </c>
       <c r="H38">
-        <v>2365.843957096591</v>
+        <v>3986226.536254203</v>
       </c>
       <c r="I38">
-        <v>125.9192148599758</v>
+        <v>1116547.118607148</v>
       </c>
       <c r="J38">
-        <v>224.0195643452309</v>
+        <v>4841472.898036688</v>
       </c>
       <c r="K38">
-        <v>983.5059233051602</v>
+        <v>3985759.477714865</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1781,28 +1778,28 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>55.62876833315659</v>
+        <v>1116407.288002049</v>
       </c>
       <c r="G39">
-        <v>300.3805190912767</v>
+        <v>4841622.364530746</v>
       </c>
       <c r="H39">
-        <v>2378.809243441277</v>
+        <v>3986236.685895802</v>
       </c>
       <c r="I39">
-        <v>174.4515796323622</v>
+        <v>1116618.210752992</v>
       </c>
       <c r="J39">
-        <v>180.1683380398196</v>
+        <v>4841424.246437592</v>
       </c>
       <c r="K39">
-        <v>812.9591570828189</v>
+        <v>3985517.922154153</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1816,28 +1813,28 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>54.72464706666131</v>
+        <v>1116406.557876588</v>
       </c>
       <c r="G40">
-        <v>312.9255950431181</v>
+        <v>4841638.877358199</v>
       </c>
       <c r="H40">
-        <v>2391.350203786812</v>
+        <v>3986246.503361413</v>
       </c>
       <c r="I40">
-        <v>224.1790092383121</v>
+        <v>1116691.053477524</v>
       </c>
       <c r="J40">
-        <v>136.3171117344084</v>
+        <v>4841375.594838499</v>
       </c>
       <c r="K40">
-        <v>631.7169111197733</v>
+        <v>3985261.217947335</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1851,28 +1848,28 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>53.86320929387568</v>
+        <v>1116405.862220292</v>
       </c>
       <c r="G41">
-        <v>325.4706709949596</v>
+        <v>4841655.390185651</v>
       </c>
       <c r="H41">
-        <v>2403.493734747482</v>
+        <v>3986256.009706565</v>
       </c>
       <c r="I41">
-        <v>275.1309310499115</v>
+        <v>1116765.689887133</v>
       </c>
       <c r="J41">
-        <v>92.46588542899732</v>
+        <v>4841326.943239405</v>
       </c>
       <c r="K41">
-        <v>439.7791854160232</v>
+        <v>3984989.365094413</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1886,28 +1883,28 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>53.04119988562913</v>
+        <v>1116405.198404474</v>
       </c>
       <c r="G42">
-        <v>338.015746946801</v>
+        <v>4841671.903013104</v>
       </c>
       <c r="H42">
-        <v>2415.264253972801</v>
+        <v>3986265.224046179</v>
       </c>
       <c r="I42">
-        <v>327.337497061214</v>
+        <v>1116842.164149665</v>
       </c>
       <c r="J42">
-        <v>48.61465912358607</v>
+        <v>4841278.291640311</v>
       </c>
       <c r="K42">
-        <v>237.1459799715677</v>
+        <v>3984702.363595385</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1921,28 +1918,28 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>52.25570087977005</v>
+        <v>1116404.564072726</v>
       </c>
       <c r="G43">
-        <v>350.5608228986425</v>
+        <v>4841688.415840557</v>
       </c>
       <c r="H43">
-        <v>2426.68399572568</v>
+        <v>3986274.163785947</v>
       </c>
       <c r="I43">
-        <v>380.8296017313843</v>
+        <v>1116920.521520557</v>
       </c>
       <c r="J43">
-        <v>4.763432818174802</v>
+        <v>4841229.640041216</v>
       </c>
       <c r="K43">
-        <v>23.81729478640748</v>
+        <v>3984400.213450253</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1956,28 +1953,28 @@
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>51.50408788015244</v>
+        <v>1116403.957105709</v>
       </c>
       <c r="G44">
-        <v>363.105898850484</v>
+        <v>4841704.928668009</v>
       </c>
       <c r="H44">
-        <v>2437.773263678886</v>
+        <v>3986282.844820236</v>
       </c>
       <c r="I44">
-        <v>435.6389002672233</v>
+        <v>1117000.80836962</v>
       </c>
       <c r="J44">
-        <v>-39.08779348723625</v>
+        <v>4841180.988442122</v>
       </c>
       <c r="K44">
-        <v>-200.2068701394569</v>
+        <v>3984082.914659014</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1991,28 +1988,28 @@
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>50.78399315285758</v>
+        <v>1116403.375591355</v>
       </c>
       <c r="G45">
-        <v>375.6509748023254</v>
+        <v>4841721.441495462</v>
       </c>
       <c r="H45">
-        <v>2448.550648151831</v>
+        <v>3986291.281702142</v>
       </c>
       <c r="I45">
-        <v>491.7978273558775</v>
+        <v>1117083.072208477</v>
       </c>
       <c r="J45">
-        <v>-82.93901979264751</v>
+        <v>4841132.336843028</v>
       </c>
       <c r="K45">
-        <v>-434.9265148060268</v>
+        <v>3983750.467221672</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2026,28 +2023,28 @@
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>50.09327423718226</v>
+        <v>1116402.817799513</v>
       </c>
       <c r="G46">
-        <v>388.1960507541669</v>
+        <v>4841737.954322915</v>
       </c>
       <c r="H46">
-        <v>2459.033213626248</v>
+        <v>3986299.48779029</v>
       </c>
       <c r="I46">
-        <v>549.3396163588246</v>
+        <v>1117167.361718686</v>
       </c>
       <c r="J46">
-        <v>-126.7902460980588</v>
+        <v>4841083.685243933</v>
       </c>
       <c r="K46">
-        <v>-680.3416392133022</v>
+        <v>3983402.871138224</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2061,28 +2058,28 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>49.42998712340744</v>
+        <v>1116402.282160294</v>
       </c>
       <c r="G47">
-        <v>400.7411267060083</v>
+        <v>4841754.467150368</v>
       </c>
       <c r="H47">
-        <v>2469.236661290568</v>
+        <v>3986307.475376072</v>
       </c>
       <c r="I47">
-        <v>608.298318978494</v>
+        <v>1117253.726780539</v>
       </c>
       <c r="J47">
-        <v>-170.64147240347</v>
+        <v>4841035.033644839</v>
       </c>
       <c r="K47">
-        <v>-936.4522433612819</v>
+        <v>3983040.126408672</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2096,28 +2093,28 @@
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>48.79236323250636</v>
+        <v>1116401.767245476</v>
       </c>
       <c r="G48">
-        <v>413.2862026578498</v>
+        <v>4841770.97997782</v>
       </c>
       <c r="H48">
-        <v>2479.175470500207</v>
+        <v>3986315.255794392</v>
       </c>
       <c r="I48">
-        <v>668.7088254091606</v>
+        <v>1117342.218502585</v>
       </c>
       <c r="J48">
-        <v>-214.4926987088809</v>
+        <v>4840986.382045745</v>
       </c>
       <c r="K48">
-        <v>-1203.258327249965</v>
+        <v>3982662.233033014</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2131,28 +2128,28 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>48.17878957701643</v>
+        <v>1116401.271752488</v>
       </c>
       <c r="G49">
-        <v>425.8312786096913</v>
+        <v>4841787.492805272</v>
       </c>
       <c r="H49">
-        <v>2488.863022352781</v>
+        <v>3986322.839520401</v>
       </c>
       <c r="I49">
-        <v>730.6068849840362</v>
+        <v>1117432.889251876</v>
       </c>
       <c r="J49">
-        <v>-258.3439250142922</v>
+        <v>4840937.730446652</v>
       </c>
       <c r="K49">
-        <v>-1480.759890879354</v>
+        <v>3982269.191011251</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2166,28 +2163,28 @@
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>47.58779159636464</v>
+        <v>1116400.794490544</v>
       </c>
       <c r="G50">
-        <v>438.3763545615328</v>
+        <v>4841804.005632726</v>
       </c>
       <c r="H50">
-        <v>2498.311708024957</v>
+        <v>3986330.236254312</v>
       </c>
       <c r="I50">
-        <v>794.0291273307721</v>
+        <v>1117525.792684952</v>
       </c>
       <c r="J50">
-        <v>-302.1951513197034</v>
+        <v>4840889.078847556</v>
       </c>
       <c r="K50">
-        <v>-1768.956934249448</v>
+        <v>3981861.000343383</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2201,28 +2198,28 @@
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>47.01801825082199</v>
+        <v>1116400.334368609</v>
       </c>
       <c r="G51">
-        <v>450.9214305133742</v>
+        <v>4841820.518460179</v>
       </c>
       <c r="H51">
-        <v>2507.533024071669</v>
+        <v>3986337.454995993</v>
       </c>
       <c r="I51">
-        <v>859.0130840479031</v>
+        <v>1117620.983779599</v>
       </c>
       <c r="J51">
-        <v>-346.0463776251147</v>
+        <v>4840840.427248462</v>
       </c>
       <c r="K51">
-        <v>-2067.849457360247</v>
+        <v>3981437.661029411</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2236,28 +2233,28 @@
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>46.46822903110927</v>
+        <v>1116399.890384907</v>
       </c>
       <c r="G52">
-        <v>463.4665064652157</v>
+        <v>4841837.031287631</v>
       </c>
       <c r="H52">
-        <v>2516.537656526326</v>
+        <v>3986344.504110815</v>
       </c>
       <c r="I52">
-        <v>925.5972109150505</v>
+        <v>1117718.518867377</v>
       </c>
       <c r="J52">
-        <v>-389.8976039305259</v>
+        <v>4840791.775649369</v>
       </c>
       <c r="K52">
-        <v>-2377.437460211751</v>
+        <v>3980999.173069333</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2271,28 +2268,28 @@
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>45.93728259938646</v>
+        <v>1116399.461617746</v>
       </c>
       <c r="G53">
-        <v>476.0115824170571</v>
+        <v>4841853.544115084</v>
       </c>
       <c r="H53">
-        <v>2525.335555345063</v>
+        <v>3986351.391387922</v>
       </c>
       <c r="I53">
-        <v>993.8209106500261</v>
+        <v>1117818.455666961</v>
       </c>
       <c r="J53">
-        <v>-433.7488302359368</v>
+        <v>4840743.124050274</v>
       </c>
       <c r="K53">
-        <v>-2697.720942803958</v>
+        <v>3980545.53646315</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2306,28 +2303,28 @@
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>45.42412682494066</v>
+        <v>1116399.047217477</v>
       </c>
       <c r="G54">
-        <v>488.5566583688986</v>
+        <v>4841870.056942536</v>
       </c>
       <c r="H54">
-        <v>2533.936000495605</v>
+        <v>3986358.124091971</v>
       </c>
       <c r="I54">
-        <v>1063.724556226324</v>
+        <v>1117920.853318294</v>
       </c>
       <c r="J54">
-        <v>-477.6000565413481</v>
+        <v>4840694.472451179</v>
       </c>
       <c r="K54">
-        <v>-3028.699905136872</v>
+        <v>3980076.751210862</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2341,28 +2338,28 @@
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>124.2561785020177</v>
+        <v>1116577.308662092</v>
       </c>
       <c r="G55">
-        <v>-89.90902257668424</v>
+        <v>4841126.016626648</v>
       </c>
       <c r="H55">
-        <v>974.4333395569299</v>
+        <v>3985227.02110726</v>
       </c>
       <c r="I55">
-        <v>-1881.60602146593</v>
+        <v>1114858.766502786</v>
       </c>
       <c r="J55">
-        <v>2091.919171543044</v>
+        <v>4843217.940700083</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984371.209860907</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2376,28 +2373,28 @@
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>124.2561785020177</v>
+        <v>1116577.308662092</v>
       </c>
       <c r="G56">
-        <v>-89.90902257668424</v>
+        <v>4841126.016626648</v>
       </c>
       <c r="H56">
-        <v>974.4333395569299</v>
+        <v>3985227.02110726</v>
       </c>
       <c r="I56">
-        <v>-1844.458108379624</v>
+        <v>1114888.380430427</v>
       </c>
       <c r="J56">
-        <v>2041.031576465329</v>
+        <v>4843169.289165428</v>
       </c>
       <c r="K56">
-        <v>398.9034826240428</v>
+        <v>3984675.005920643</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2411,28 +2408,28 @@
         <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>124.2561785020177</v>
+        <v>1116577.308662092</v>
       </c>
       <c r="G57">
-        <v>-89.90902257668424</v>
+        <v>4841126.016626648</v>
       </c>
       <c r="H57">
-        <v>974.4333395569299</v>
+        <v>3985227.02110726</v>
       </c>
       <c r="I57">
-        <v>-1806.395462109022</v>
+        <v>1114918.723573792</v>
       </c>
       <c r="J57">
-        <v>1990.143981387614</v>
+        <v>4843120.637630773</v>
       </c>
       <c r="K57">
-        <v>777.9158090965296</v>
+        <v>3984963.65331629</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2446,28 +2443,28 @@
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>124.2561785020177</v>
+        <v>1116577.308662092</v>
       </c>
       <c r="G58">
-        <v>-89.90902257668424</v>
+        <v>4841126.016626648</v>
       </c>
       <c r="H58">
-        <v>974.4333395569299</v>
+        <v>3985227.02110726</v>
       </c>
       <c r="I58">
-        <v>-1767.395558190997</v>
+        <v>1114949.813889148</v>
       </c>
       <c r="J58">
-        <v>1939.256386309899</v>
+        <v>4843071.986096119</v>
       </c>
       <c r="K58">
-        <v>1137.036979417463</v>
+        <v>3985237.152047846</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2481,28 +2478,28 @@
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>124.2561785020177</v>
+        <v>1116577.308662092</v>
       </c>
       <c r="G59">
-        <v>-89.90902257668424</v>
+        <v>4841126.016626648</v>
       </c>
       <c r="H59">
-        <v>974.4333395569299</v>
+        <v>3985227.02110726</v>
       </c>
       <c r="I59">
-        <v>-1727.435317518246</v>
+        <v>1114981.669774916</v>
       </c>
       <c r="J59">
-        <v>1888.368791232184</v>
+        <v>4843023.334561464</v>
       </c>
       <c r="K59">
-        <v>1476.266993586841</v>
+        <v>3985495.502115314</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2516,28 +2513,28 @@
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>124.2561785020177</v>
+        <v>1116577.308662092</v>
       </c>
       <c r="G60">
-        <v>-89.90902257668424</v>
+        <v>4841126.016626648</v>
       </c>
       <c r="H60">
-        <v>974.4333395569299</v>
+        <v>3985227.02110726</v>
       </c>
       <c r="I60">
-        <v>-1686.491092681675</v>
+        <v>1115014.310082565</v>
       </c>
       <c r="J60">
-        <v>1837.481196154469</v>
+        <v>4842974.68302681</v>
       </c>
       <c r="K60">
-        <v>1795.605851604667</v>
+        <v>3985738.703518692</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2551,28 +2548,28 @@
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>124.2561785020177</v>
+        <v>1116577.308662092</v>
       </c>
       <c r="G61">
-        <v>-89.90902257668424</v>
+        <v>4841126.016626648</v>
       </c>
       <c r="H61">
-        <v>974.4333395569299</v>
+        <v>3985227.02110726</v>
       </c>
       <c r="I61">
-        <v>-1644.5386539765</v>
+        <v>1115047.754127761</v>
       </c>
       <c r="J61">
-        <v>1786.593601076754</v>
+        <v>4842926.031492154</v>
       </c>
       <c r="K61">
-        <v>2095.053553470937</v>
+        <v>3985966.75625798</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2586,28 +2583,28 @@
         <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>124.2561785020177</v>
+        <v>1116577.308662092</v>
       </c>
       <c r="G62">
-        <v>-89.90902257668424</v>
+        <v>4841126.016626648</v>
       </c>
       <c r="H62">
-        <v>974.4333395569299</v>
+        <v>3985227.02110726</v>
       </c>
       <c r="I62">
-        <v>-1601.553175063746</v>
+        <v>1115082.021701802</v>
       </c>
       <c r="J62">
-        <v>1735.706005999039</v>
+        <v>4842877.3799575</v>
       </c>
       <c r="K62">
-        <v>2374.610099185654</v>
+        <v>3986179.660333179</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2621,28 +2618,28 @@
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>124.2561785020177</v>
+        <v>1116577.308662092</v>
       </c>
       <c r="G63">
-        <v>-75.06251217678634</v>
+        <v>4841142.529450816</v>
       </c>
       <c r="H63">
-        <v>974.4333395569299</v>
+        <v>3985227.02110726</v>
       </c>
       <c r="I63">
-        <v>-1557.509218278681</v>
+        <v>1115117.133083327</v>
       </c>
       <c r="J63">
-        <v>1684.818410921325</v>
+        <v>4842828.728422846</v>
       </c>
       <c r="K63">
-        <v>2634.275488748814</v>
+        <v>3986377.415744287</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2656,28 +2653,28 @@
         <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>96.43728980331571</v>
+        <v>1116528.62815043</v>
       </c>
       <c r="G64">
-        <v>-60.21600177688844</v>
+        <v>4841159.042274984</v>
       </c>
       <c r="H64">
-        <v>1200.495317317807</v>
+        <v>3985426.275448674</v>
       </c>
       <c r="I64">
-        <v>-1512.38071957748</v>
+        <v>1115153.109050322</v>
       </c>
       <c r="J64">
-        <v>1633.93081584361</v>
+        <v>4842780.076888192</v>
       </c>
       <c r="K64">
-        <v>2874.049722160421</v>
+        <v>3986560.022491307</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2691,28 +2688,28 @@
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>80.09508823893209</v>
+        <v>1116500.030791907</v>
       </c>
       <c r="G65">
-        <v>-45.36949137699055</v>
+        <v>4841175.555099151</v>
       </c>
       <c r="H65">
-        <v>1335.149392520641</v>
+        <v>3985544.961524674</v>
       </c>
       <c r="I65">
-        <v>-1466.140973113221</v>
+        <v>1115189.970892406</v>
       </c>
       <c r="J65">
-        <v>1583.043220765895</v>
+        <v>4842731.425353536</v>
       </c>
       <c r="K65">
-        <v>3093.932799420474</v>
+        <v>3986727.480574237</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2726,28 +2723,28 @@
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>69.77869168692654</v>
+        <v>1116481.978041198</v>
       </c>
       <c r="G66">
-        <v>-30.52298097709265</v>
+        <v>4841192.06792332</v>
       </c>
       <c r="H66">
-        <v>1431.377559147085</v>
+        <v>3985629.778441507</v>
       </c>
       <c r="I66">
-        <v>-1418.762615432064</v>
+        <v>1115227.740423439</v>
       </c>
       <c r="J66">
-        <v>1532.15562568818</v>
+        <v>4842682.773818881</v>
       </c>
       <c r="K66">
-        <v>3293.924720528973</v>
+        <v>3986879.789993077</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2761,28 +2758,28 @@
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>62.58407860826995</v>
+        <v>1116469.388126135</v>
       </c>
       <c r="G67">
-        <v>-15.67647057719475</v>
+        <v>4841208.580747486</v>
       </c>
       <c r="H67">
-        <v>1506.310380944819</v>
+        <v>3985695.825329203</v>
       </c>
       <c r="I67">
-        <v>-1370.2176092803</v>
+        <v>1115266.439994427</v>
       </c>
       <c r="J67">
-        <v>1481.268030610465</v>
+        <v>4842634.122284227</v>
       </c>
       <c r="K67">
-        <v>3474.025485485917</v>
+        <v>3987016.950747828</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2796,28 +2793,28 @@
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>57.21668179751311</v>
+        <v>1116459.995672473</v>
       </c>
       <c r="G68">
-        <v>-0.8299601772968598</v>
+        <v>4841225.093571655</v>
       </c>
       <c r="H68">
-        <v>1567.686174316625</v>
+        <v>3985749.92285329</v>
       </c>
       <c r="I68">
-        <v>-1320.477227012635</v>
+        <v>1115306.092506747</v>
       </c>
       <c r="J68">
-        <v>1430.38043553275</v>
+        <v>4842585.470749573</v>
       </c>
       <c r="K68">
-        <v>3634.235094291306</v>
+        <v>3987138.962838489</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2831,28 +2828,28 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>53.02012702624457</v>
+        <v>1116452.652085326</v>
       </c>
       <c r="G69">
-        <v>14.01655022260104</v>
+        <v>4841241.606395821</v>
       </c>
       <c r="H69">
-        <v>1619.666991086774</v>
+        <v>3985795.739507264</v>
       </c>
       <c r="I69">
-        <v>-1269.512033591942</v>
+        <v>1115346.721425703</v>
       </c>
       <c r="J69">
-        <v>1379.492840455036</v>
+        <v>4842536.819214918</v>
       </c>
       <c r="K69">
-        <v>3774.553546945142</v>
+        <v>3987245.82626506</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2866,28 +2863,28 @@
         <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>49.62480865511608</v>
+        <v>1116446.71058862</v>
       </c>
       <c r="G70">
-        <v>28.86306062249894</v>
+        <v>4841258.11921999</v>
       </c>
       <c r="H70">
-        <v>1664.750882517264</v>
+        <v>3985835.47711013</v>
       </c>
       <c r="I70">
-        <v>-1217.291869170382</v>
+        <v>1115388.350794411</v>
       </c>
       <c r="J70">
-        <v>1328.605245377321</v>
+        <v>4842488.167680264</v>
       </c>
       <c r="K70">
-        <v>3894.980843447422</v>
+        <v>3987337.541027542</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2901,28 +2898,28 @@
         <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>46.80548458736832</v>
+        <v>1116441.77702928</v>
       </c>
       <c r="G71">
-        <v>43.70957102239683</v>
+        <v>4841274.632044158</v>
       </c>
       <c r="H71">
-        <v>1704.555497432589</v>
+        <v>3985870.561481278</v>
       </c>
       <c r="I71">
-        <v>-1163.785831241612</v>
+        <v>1115431.005248025</v>
       </c>
       <c r="J71">
-        <v>1277.717650299606</v>
+        <v>4842439.516145609</v>
       </c>
       <c r="K71">
-        <v>3995.516983798149</v>
+        <v>3987414.107125934</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2936,28 +2933,28 @@
         <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>44.41631956773118</v>
+        <v>1116437.596208944</v>
       </c>
       <c r="G72">
-        <v>58.55608142229475</v>
+        <v>4841291.144868325</v>
       </c>
       <c r="H72">
-        <v>1740.188637619834</v>
+        <v>3985901.969053444</v>
       </c>
       <c r="I72">
-        <v>-1108.962256353498</v>
+        <v>1115474.710028318</v>
       </c>
       <c r="J72">
-        <v>1226.830055221891</v>
+        <v>4842390.864610954</v>
       </c>
       <c r="K72">
-        <v>4076.161967997321</v>
+        <v>3987475.524560237</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2971,28 +2968,28 @@
         <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>42.35828699112823</v>
+        <v>1116433.994840107</v>
       </c>
       <c r="G73">
-        <v>73.40259182219263</v>
+        <v>4841307.657692493</v>
       </c>
       <c r="H73">
-        <v>1772.442288834358</v>
+        <v>3985930.397894484</v>
       </c>
       <c r="I73">
-        <v>-1052.788701370528</v>
+        <v>1115519.490998618</v>
       </c>
       <c r="J73">
-        <v>1175.942460144176</v>
+        <v>4842342.213076299</v>
       </c>
       <c r="K73">
-        <v>4136.915796044939</v>
+        <v>3987521.793330451</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3006,28 +3003,28 @@
         <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>40.56151820964119</v>
+        <v>1116430.850659023</v>
       </c>
       <c r="G74">
-        <v>88.24910222209051</v>
+        <v>4841324.17051666</v>
       </c>
       <c r="H74">
-        <v>1801.902316427613</v>
+        <v>3985956.364394708</v>
       </c>
       <c r="I74">
-        <v>-995.2319242748257</v>
+        <v>1115565.374659114</v>
       </c>
       <c r="J74">
-        <v>1125.054865066461</v>
+        <v>4842293.561541645</v>
       </c>
       <c r="K74">
-        <v>4177.778467941002</v>
+        <v>3987552.913436574</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3041,28 +3038,28 @@
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>38.97514119648616</v>
+        <v>1116428.074644297</v>
       </c>
       <c r="G75">
-        <v>103.0956126219884</v>
+        <v>4841340.683340828</v>
       </c>
       <c r="H75">
-        <v>1829.014316162764</v>
+        <v>3985980.261308754</v>
       </c>
       <c r="I75">
-        <v>-936.2578644944053</v>
+        <v>1115612.388162537</v>
       </c>
       <c r="J75">
-        <v>1074.167269988747</v>
+        <v>4842244.910006991</v>
       </c>
       <c r="K75">
-        <v>4198.749983685511</v>
+        <v>3987568.884878608</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3076,28 +3073,28 @@
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>37.56112892595532</v>
+        <v>1116425.600252111</v>
       </c>
       <c r="G76">
-        <v>117.9421230218863</v>
+        <v>4841357.196164995</v>
       </c>
       <c r="H76">
-        <v>1854.125101761947</v>
+        <v>3986002.394323322</v>
       </c>
       <c r="I76">
-        <v>-875.8316227470323</v>
+        <v>1115660.559330231</v>
       </c>
       <c r="J76">
-        <v>1023.279674911032</v>
+        <v>4842196.258472336</v>
       </c>
       <c r="K76">
-        <v>4199.830343278466</v>
+        <v>3987569.707656553</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3111,28 +3108,28 @@
         <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>36.29041558734045</v>
+        <v>1116423.376619953</v>
       </c>
       <c r="G77">
-        <v>132.7886334217842</v>
+        <v>4841373.708989164</v>
       </c>
       <c r="H77">
-        <v>1877.509904478265</v>
+        <v>3986023.006031272</v>
       </c>
       <c r="I77">
-        <v>-813.9174403877535</v>
+        <v>1115709.916668612</v>
       </c>
       <c r="J77">
-        <v>972.3920798333166</v>
+        <v>4842147.60693768</v>
       </c>
       <c r="K77">
-        <v>4181.019546719866</v>
+        <v>3987555.381770407</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3146,28 +3143,28 @@
         <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>35.14035592754396</v>
+        <v>1116421.364120702</v>
       </c>
       <c r="G78">
-        <v>147.6351438216821</v>
+        <v>4841390.221813331</v>
       </c>
       <c r="H78">
-        <v>1899.390810868788</v>
+        <v>3986042.292182954</v>
       </c>
       <c r="I78">
-        <v>-750.4786782478801</v>
+        <v>1115760.489386043</v>
       </c>
       <c r="J78">
-        <v>921.504484755602</v>
+        <v>4842098.955403026</v>
       </c>
       <c r="K78">
-        <v>4142.317594009713</v>
+        <v>3987525.907220172</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3181,28 +3178,28 @@
         <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>34.0930118664432</v>
+        <v>1116419.531364357</v>
       </c>
       <c r="G79">
-        <v>162.48165422158</v>
+        <v>4841406.734637499</v>
       </c>
       <c r="H79">
-        <v>1919.949621655844</v>
+        <v>3986060.413020187</v>
       </c>
       <c r="I79">
-        <v>-685.4777949529038</v>
+        <v>1115812.307410114</v>
       </c>
       <c r="J79">
-        <v>870.616889677887</v>
+        <v>4842050.303868372</v>
       </c>
       <c r="K79">
-        <v>4083.724485148004</v>
+        <v>3987481.284005848</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3216,28 +3213,28 @@
         <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>33.1339661428208</v>
+        <v>1116417.853122029</v>
       </c>
       <c r="G80">
-        <v>177.3281646214779</v>
+        <v>4841423.247461666</v>
       </c>
       <c r="H80">
-        <v>1939.337042282482</v>
+        <v>3986077.501376959</v>
       </c>
       <c r="I80">
-        <v>-618.8763247065049</v>
+        <v>1115865.401405357</v>
       </c>
       <c r="J80">
-        <v>819.729294600172</v>
+        <v>4842001.652333717</v>
       </c>
       <c r="K80">
-        <v>4005.240220134741</v>
+        <v>3987421.512127433</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3251,28 +3248,28 @@
         <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>32.25148171637302</v>
+        <v>1116416.30885497</v>
       </c>
       <c r="G81">
-        <v>192.1746750213758</v>
+        <v>4841439.760285834</v>
       </c>
       <c r="H81">
-        <v>1957.679393436518</v>
+        <v>3986093.668594177</v>
       </c>
       <c r="I81">
-        <v>-550.6348545275177</v>
+        <v>1115919.802791387</v>
       </c>
       <c r="J81">
-        <v>768.8416995224574</v>
+        <v>4841953.000799063</v>
       </c>
       <c r="K81">
-        <v>3906.864798969924</v>
+        <v>3987346.59158493</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3286,28 +3283,28 @@
         <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>31.43589392035748</v>
+        <v>1116414.881650899</v>
       </c>
       <c r="G82">
-        <v>207.0211854212737</v>
+        <v>4841456.273110002</v>
       </c>
       <c r="H82">
-        <v>1975.083603657429</v>
+        <v>3986109.008920223</v>
       </c>
       <c r="I82">
-        <v>-480.7130009263738</v>
+        <v>1115975.5437615</v>
       </c>
       <c r="J82">
-        <v>717.9541044447424</v>
+        <v>4841904.349264408</v>
       </c>
       <c r="K82">
-        <v>3788.598221653552</v>
+        <v>3987256.522378337</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3321,28 +3318,28 @@
         <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>30.67916290500952</v>
+        <v>1116413.557440812</v>
       </c>
       <c r="G83">
-        <v>221.8676958211716</v>
+        <v>4841472.78593417</v>
       </c>
       <c r="H83">
-        <v>1991.640986170791</v>
+        <v>3986123.602839912</v>
       </c>
       <c r="I83">
-        <v>-409.0693860072275</v>
+        <v>1116032.65730172</v>
       </c>
       <c r="J83">
-        <v>667.0665093670274</v>
+        <v>4841855.697729753</v>
       </c>
       <c r="K83">
-        <v>3650.440488185626</v>
+        <v>3987151.304507655</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3356,28 +3353,28 @@
         <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>29.97453873408618</v>
+        <v>1116412.324412939</v>
       </c>
       <c r="G84">
-        <v>236.7142062210695</v>
+        <v>4841489.298758337</v>
       </c>
       <c r="H84">
-        <v>2007.430138781568</v>
+        <v>3986137.519630502</v>
       </c>
       <c r="I84">
-        <v>-335.6616129816147</v>
+        <v>1116091.177210326</v>
       </c>
       <c r="J84">
-        <v>616.1789142893127</v>
+        <v>4841807.046195098</v>
       </c>
       <c r="K84">
-        <v>3492.391598566147</v>
+        <v>3987030.937972882</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3391,28 +3388,28 @@
         <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>29.31630710889968</v>
+        <v>1116411.172567779</v>
       </c>
       <c r="G85">
-        <v>251.5607166209674</v>
+        <v>4841505.811582506</v>
       </c>
       <c r="H85">
-        <v>2022.519200361075</v>
+        <v>3986150.819350595</v>
       </c>
       <c r="I85">
-        <v>-260.4462410791591</v>
+        <v>1116151.138117843</v>
       </c>
       <c r="J85">
-        <v>565.2913192115977</v>
+        <v>4841758.394660444</v>
       </c>
       <c r="K85">
-        <v>3314.451552795111</v>
+        <v>3986895.42277402</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3426,28 +3423,28 @@
         <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>28.69959375353244</v>
+        <v>1116410.093375795</v>
       </c>
       <c r="G86">
-        <v>266.4072270208653</v>
+        <v>4841522.324406672</v>
       </c>
       <c r="H86">
-        <v>2036.967627978509</v>
+        <v>3986163.55440652</v>
       </c>
       <c r="I86">
-        <v>-183.3787598404783</v>
+        <v>1116212.575507545</v>
       </c>
       <c r="J86">
-        <v>514.4037241338831</v>
+        <v>4841709.74312579</v>
       </c>
       <c r="K86">
-        <v>3116.620350872523</v>
+        <v>3986744.758911069</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3461,28 +3458,28 @@
         <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>28.12021211903318</v>
+        <v>1116409.079510909</v>
       </c>
       <c r="G87">
-        <v>281.2537374207632</v>
+        <v>4841538.837230841</v>
       </c>
       <c r="H87">
-        <v>2050.827611910889</v>
+        <v>3986175.770799554</v>
       </c>
       <c r="I87">
-        <v>-104.4135627770776</v>
+        <v>1116275.525736447</v>
       </c>
       <c r="J87">
-        <v>463.5161290561681</v>
+        <v>4841661.091591135</v>
       </c>
       <c r="K87">
-        <v>2898.897992798379</v>
+        <v>3986578.946384028</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3496,28 +3493,28 @@
         <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>27.57454351315827</v>
+        <v>1116408.124640741</v>
       </c>
       <c r="G88">
-        <v>296.1002478206611</v>
+        <v>4841555.350055007</v>
       </c>
       <c r="H88">
-        <v>2064.145213621273</v>
+        <v>3986187.509128946</v>
       </c>
       <c r="I88">
-        <v>-23.50392038264028</v>
+        <v>1116340.026056823</v>
       </c>
       <c r="J88">
-        <v>412.6285339784532</v>
+        <v>4841612.44005648</v>
       </c>
       <c r="K88">
-        <v>2661.284478572681</v>
+        <v>3986397.985192897</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3531,28 +3528,28 @@
         <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>27.0594418040089</v>
+        <v>1116407.223259847</v>
       </c>
       <c r="G89">
-        <v>310.946758220559</v>
+        <v>4841571.862879176</v>
       </c>
       <c r="H89">
-        <v>2076.961289345169</v>
+        <v>3986198.805405981</v>
       </c>
       <c r="I89">
-        <v>59.3980475202542</v>
+        <v>1116406.114638248</v>
       </c>
       <c r="J89">
-        <v>361.7409389007385</v>
+        <v>4841563.788521825</v>
       </c>
       <c r="K89">
-        <v>2403.779808195429</v>
+        <v>3986201.875337677</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3566,28 +3563,28 @@
         <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>26.57215696002414</v>
+        <v>1116406.370555924</v>
       </c>
       <c r="G90">
-        <v>325.7932686204569</v>
+        <v>4841588.375703344</v>
       </c>
       <c r="H90">
-        <v>2089.312245999244</v>
+        <v>3986209.691720249</v>
       </c>
       <c r="I90">
-        <v>144.3414001143454</v>
+        <v>1116473.830590191</v>
       </c>
       <c r="J90">
-        <v>310.8533438230235</v>
+        <v>4841515.136987171</v>
       </c>
       <c r="K90">
-        <v>2126.383981666623</v>
+        <v>3985990.616818367</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3601,28 +3598,28 @@
         <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>26.11027318034661</v>
+        <v>1116405.562301541</v>
       </c>
       <c r="G91">
-        <v>340.6397790203548</v>
+        <v>4841604.888527511</v>
       </c>
       <c r="H91">
-        <v>2101.23066466636</v>
+        <v>3986220.196789194</v>
       </c>
       <c r="I91">
-        <v>231.3764046196153</v>
+        <v>1116543.213985153</v>
       </c>
       <c r="J91">
-        <v>259.9657487453088</v>
+        <v>4841466.485452517</v>
       </c>
       <c r="K91">
-        <v>1829.096998986263</v>
+        <v>3985764.209634968</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3636,28 +3633,28 @@
         <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>25.67165843655481</v>
+        <v>1116404.794765843</v>
       </c>
       <c r="G92">
-        <v>355.4862894202527</v>
+        <v>4841621.401351679</v>
       </c>
       <c r="H92">
-        <v>2112.74581855549</v>
+        <v>3986230.346414652</v>
       </c>
       <c r="I92">
-        <v>320.5545660400907</v>
+        <v>1116614.305882385</v>
       </c>
       <c r="J92">
-        <v>209.0781536675939</v>
+        <v>4841417.833917862</v>
       </c>
       <c r="K92">
-        <v>1511.918860154346</v>
+        <v>3985522.653787478</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3671,28 +3668,28 @@
         <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>25.25442301980628</v>
+        <v>1116404.064642012</v>
       </c>
       <c r="G93">
-        <v>370.3327998201506</v>
+        <v>4841637.914175847</v>
       </c>
       <c r="H93">
-        <v>2123.884106168822</v>
+        <v>3986240.163864649</v>
       </c>
       <c r="I93">
-        <v>411.928657643142</v>
+        <v>1116687.148352182</v>
       </c>
       <c r="J93">
-        <v>158.1905585898789</v>
+        <v>4841369.182383207</v>
       </c>
       <c r="K93">
-        <v>1174.849565170877</v>
+        <v>3985265.9492759</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3706,28 +3703,28 @@
         <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>24.8568852541873</v>
+        <v>1116403.368987271</v>
       </c>
       <c r="G94">
-        <v>385.1793102200485</v>
+        <v>4841654.427000014</v>
       </c>
       <c r="H94">
-        <v>2134.669415806571</v>
+        <v>3986249.670194683</v>
       </c>
       <c r="I94">
-        <v>505.5527521892941</v>
+        <v>1116761.784500784</v>
       </c>
       <c r="J94">
-        <v>107.3029635121642</v>
+        <v>4841320.530848552</v>
       </c>
       <c r="K94">
-        <v>817.8891140358533</v>
+        <v>3984994.096100232</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3741,28 +3738,28 @@
         <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>24.47754295716285</v>
+        <v>1116402.705172935</v>
       </c>
       <c r="G95">
-        <v>400.0258206199463</v>
+        <v>4841670.939824182</v>
       </c>
       <c r="H95">
-        <v>2145.123434069735</v>
+        <v>3986258.884519643</v>
       </c>
       <c r="I95">
-        <v>601.4822539310596</v>
+        <v>1116838.258495882</v>
       </c>
       <c r="J95">
-        <v>56.41536843444923</v>
+        <v>4841271.879313898</v>
       </c>
       <c r="K95">
-        <v>441.0375067492743</v>
+        <v>3984707.094260474</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3776,28 +3773,28 @@
         <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>24.11504954260619</v>
+        <v>1116402.070842603</v>
       </c>
       <c r="G96">
-        <v>414.8723310198443</v>
+        <v>4841687.45264835</v>
       </c>
       <c r="H96">
-        <v>2155.265908378636</v>
+        <v>3986267.824245194</v>
       </c>
       <c r="I96">
-        <v>699.7739313996919</v>
+        <v>1116916.615592754</v>
       </c>
       <c r="J96">
-        <v>5.527773356734283</v>
+        <v>4841223.227779243</v>
       </c>
       <c r="K96">
-        <v>44.2947433111413</v>
+        <v>3984404.943756627</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3811,28 +3808,28 @@
         <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>23.76819389972911</v>
+        <v>1116401.463876942</v>
       </c>
       <c r="G97">
-        <v>429.7188414197421</v>
+        <v>4841703.965472518</v>
       </c>
       <c r="H97">
-        <v>2165.114871494772</v>
+        <v>3986276.505265677</v>
       </c>
       <c r="I97">
-        <v>800.4859509993034</v>
+        <v>1116996.902161049</v>
       </c>
       <c r="J97">
-        <v>-45.35982172098043</v>
+        <v>4841174.576244589</v>
       </c>
       <c r="K97">
-        <v>-372.3391762785449</v>
+        <v>3984087.64458869</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3846,28 +3843,28 @@
         <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>23.43588336266371</v>
+        <v>1116400.882363887</v>
       </c>
       <c r="G98">
-        <v>444.5653518196401</v>
+        <v>4841720.478296685</v>
       </c>
       <c r="H98">
-        <v>2174.686834460259</v>
+        <v>3986284.942134166</v>
       </c>
       <c r="I98">
-        <v>903.6779114281967</v>
+        <v>1117079.165712226</v>
       </c>
       <c r="J98">
-        <v>-96.24741679869538</v>
+        <v>4841125.924709934</v>
       </c>
       <c r="K98">
-        <v>-808.8642520197867</v>
+        <v>3983755.196756663</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3881,28 +3878,28 @@
         <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>23.117129225008</v>
+        <v>1116400.32457329</v>
       </c>
       <c r="G99">
-        <v>459.411862219538</v>
+        <v>4841736.991120853</v>
       </c>
       <c r="H99">
-        <v>2183.996953140381</v>
+        <v>3986293.148209263</v>
       </c>
       <c r="I99">
-        <v>1009.410878947789</v>
+        <v>1117163.45492767</v>
       </c>
       <c r="J99">
-        <v>-147.1350118764103</v>
+        <v>4841077.273175279</v>
       </c>
       <c r="K99">
-        <v>-1265.280483912584</v>
+        <v>3983407.600260547</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3916,28 +3913,28 @@
         <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>22.81103436185701</v>
+        <v>1116399.788935267</v>
       </c>
       <c r="G100">
-        <v>474.2583726194359</v>
+        <v>4841753.50394502</v>
       </c>
       <c r="H100">
-        <v>2193.059172587812</v>
+        <v>3986301.135782342</v>
       </c>
       <c r="I100">
-        <v>1117.747423520005</v>
+        <v>1117249.8196875</v>
       </c>
       <c r="J100">
-        <v>-198.0226069541253</v>
+        <v>4841028.621640624</v>
       </c>
       <c r="K100">
-        <v>-1741.587871956935</v>
+        <v>3983044.855100342</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3951,28 +3948,28 @@
         <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>22.51678260635943</v>
+        <v>1116399.274021599</v>
       </c>
       <c r="G101">
-        <v>489.1048830193337</v>
+        <v>4841770.016769188</v>
       </c>
       <c r="H101">
-        <v>2201.886352680953</v>
+        <v>3986308.916188288</v>
       </c>
       <c r="I101">
-        <v>1228.751655834518</v>
+        <v>1117338.311100086</v>
       </c>
       <c r="J101">
-        <v>-248.9102020318398</v>
+        <v>4840979.97010597</v>
       </c>
       <c r="K101">
-        <v>-2237.786416152836</v>
+        <v>3982666.961276046</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3986,28 +3983,28 @@
         <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>22.23362959432308</v>
+        <v>1116398.778529718</v>
       </c>
       <c r="G102">
-        <v>503.9513934192317</v>
+        <v>4841786.529593355</v>
       </c>
       <c r="H102">
-        <v>2210.490377877592</v>
+        <v>3986316.499902237</v>
       </c>
       <c r="I102">
-        <v>1342.489265247756</v>
+        <v>1117428.981532297</v>
       </c>
       <c r="J102">
-        <v>-299.7977971095547</v>
+        <v>4840931.318571316</v>
       </c>
       <c r="K102">
-        <v>-2753.876116500295</v>
+        <v>3982273.918787661</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4021,28 +4018,28 @@
         <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>21.96089484303175</v>
+        <v>1116398.30126884</v>
       </c>
       <c r="G103">
-        <v>518.7979038191296</v>
+        <v>4841803.042417523</v>
       </c>
       <c r="H103">
-        <v>2218.882253434564</v>
+        <v>3986323.896624384</v>
       </c>
       <c r="I103">
-        <v>1459.027558656112</v>
+        <v>1117521.884640485</v>
       </c>
       <c r="J103">
-        <v>-350.6853921872697</v>
+        <v>4840882.66703666</v>
       </c>
       <c r="K103">
-        <v>-3289.85697299931</v>
+        <v>3981865.727635187</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4056,28 +4053,28 @@
         <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>21.69795487237801</v>
+        <v>1116397.841147932</v>
       </c>
       <c r="G104">
-        <v>533.6444142190275</v>
+        <v>4841819.555241692</v>
       </c>
       <c r="H104">
-        <v>2227.072190048013</v>
+        <v>3986331.115354585</v>
       </c>
       <c r="I104">
-        <v>1578.435500326384</v>
+        <v>1117617.075402244</v>
       </c>
       <c r="J104">
-        <v>-401.5729872649846</v>
+        <v>4840834.015502006</v>
       </c>
       <c r="K104">
-        <v>-3845.728985649878</v>
+        <v>3981442.387818623</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4091,28 +4088,28 @@
         <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>21.444237210034</v>
+        <v>1116397.397165221</v>
       </c>
       <c r="G105">
-        <v>548.4909246189254</v>
+        <v>4841836.068065858</v>
       </c>
       <c r="H105">
-        <v>2235.069678547211</v>
+        <v>3986338.164458196</v>
       </c>
       <c r="I105">
-        <v>1700.783752706996</v>
+        <v>1117714.610148936</v>
       </c>
       <c r="J105">
-        <v>-452.4605823426995</v>
+        <v>4840785.363967352</v>
       </c>
       <c r="K105">
-        <v>-4421.492154452</v>
+        <v>3981003.899337969</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4126,28 +4123,28 @@
         <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>21.19921514947596</v>
+        <v>1116396.968399019</v>
       </c>
       <c r="G106">
-        <v>563.3374350188233</v>
+        <v>4841852.580890027</v>
       </c>
       <c r="H106">
-        <v>2242.883556012421</v>
+        <v>3986345.05172435</v>
       </c>
       <c r="I106">
-        <v>1826.14471824415</v>
+        <v>1117814.546599036</v>
       </c>
       <c r="J106">
-        <v>-503.348177420414</v>
+        <v>4840736.712432697</v>
       </c>
       <c r="K106">
-        <v>-5017.146479405673</v>
+        <v>3980550.262193226</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4161,28 +4158,28 @@
         <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>20.9624031516366</v>
+        <v>1116396.553999675</v>
       </c>
       <c r="G107">
-        <v>578.1839454187211</v>
+        <v>4841869.093714194</v>
       </c>
       <c r="H107">
-        <v>2250.522064471904</v>
+        <v>3986351.784417692</v>
       </c>
       <c r="I107">
-        <v>1954.592582227685</v>
+        <v>1117916.94389228</v>
       </c>
       <c r="J107">
-        <v>-554.235772498129</v>
+        <v>4840688.060898042</v>
       </c>
       <c r="K107">
-        <v>-5632.691960510905</v>
+        <v>3980081.476384393</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4190,34 +4187,34 @@
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
         <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>178.3144467252635</v>
+        <v>1116577.444755914</v>
       </c>
       <c r="G108">
-        <v>-67.18523382046632</v>
+        <v>4841121.801259995</v>
       </c>
       <c r="H108">
-        <v>628.3912675206998</v>
+        <v>3985229.205903393</v>
       </c>
       <c r="I108">
-        <v>-1485.465516149191</v>
+        <v>1114862.587986565</v>
       </c>
       <c r="J108">
-        <v>1572.351991887194</v>
+        <v>4843214.18077733</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984356.705735818</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4225,34 +4222,34 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
         <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>178.3144467252635</v>
+        <v>1116577.444755914</v>
       </c>
       <c r="G109">
-        <v>-67.18523382046632</v>
+        <v>4841121.801259995</v>
       </c>
       <c r="H109">
-        <v>628.3912675206998</v>
+        <v>3985229.205903393</v>
       </c>
       <c r="I109">
-        <v>-1456.138471455944</v>
+        <v>1114892.202015716</v>
       </c>
       <c r="J109">
-        <v>1534.103281052074</v>
+        <v>4843165.529280445</v>
       </c>
       <c r="K109">
-        <v>254.7935136919498</v>
+        <v>3984660.500689659</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4260,34 +4257,34 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>178.3144467252635</v>
+        <v>1116577.444755914</v>
       </c>
       <c r="G110">
-        <v>-67.18523382046632</v>
+        <v>4841121.801259995</v>
       </c>
       <c r="H110">
-        <v>628.3912675206998</v>
+        <v>3985229.205903393</v>
       </c>
       <c r="I110">
-        <v>-1426.089275267512</v>
+        <v>1114922.545263091</v>
       </c>
       <c r="J110">
-        <v>1495.854570216954</v>
+        <v>4843116.877783559</v>
       </c>
       <c r="K110">
-        <v>496.8818548596807</v>
+        <v>3984949.147034555</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4295,34 +4292,34 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
         <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>178.3144467252635</v>
+        <v>1116577.444755914</v>
       </c>
       <c r="G111">
-        <v>-67.18523382046632</v>
+        <v>4841121.801259995</v>
       </c>
       <c r="H111">
-        <v>628.3912675206998</v>
+        <v>3985229.205903393</v>
       </c>
       <c r="I111">
-        <v>-1395.300145267693</v>
+        <v>1114953.635685017</v>
       </c>
       <c r="J111">
-        <v>1457.605859381834</v>
+        <v>4843068.226286674</v>
       </c>
       <c r="K111">
-        <v>726.2650235031947</v>
+        <v>3985222.644770507</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4330,34 +4327,34 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C112" t="s">
         <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>178.3144467252635</v>
+        <v>1116577.444755914</v>
       </c>
       <c r="G112">
-        <v>-67.18523382046632</v>
+        <v>4841121.801259995</v>
       </c>
       <c r="H112">
-        <v>628.3912675206998</v>
+        <v>3985229.205903393</v>
       </c>
       <c r="I112">
-        <v>-1363.752861267109</v>
+        <v>1114985.49167998</v>
       </c>
       <c r="J112">
-        <v>1419.357148546714</v>
+        <v>4843019.57478979</v>
       </c>
       <c r="K112">
-        <v>942.9430196224902</v>
+        <v>3985480.993897515</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4365,34 +4362,34 @@
         <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C113" t="s">
         <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>178.3144467252635</v>
+        <v>1116577.444755914</v>
       </c>
       <c r="G113">
-        <v>-67.18523382046632</v>
+        <v>4841121.801259995</v>
       </c>
       <c r="H113">
-        <v>628.3912675206998</v>
+        <v>3985229.205903393</v>
       </c>
       <c r="I113">
-        <v>-1331.428754420979</v>
+        <v>1115018.132099512</v>
       </c>
       <c r="J113">
-        <v>1381.108437711594</v>
+        <v>4842970.923292904</v>
       </c>
       <c r="K113">
-        <v>1146.915843217569</v>
+        <v>3985724.194415578</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4400,34 +4397,34 @@
         <v>17</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
         <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>178.3144467252635</v>
+        <v>1116577.444755914</v>
       </c>
       <c r="G114">
-        <v>-67.18523382046632</v>
+        <v>4841121.801259995</v>
       </c>
       <c r="H114">
-        <v>628.3912675206998</v>
+        <v>3985229.205903393</v>
       </c>
       <c r="I114">
-        <v>-1298.308696181397</v>
+        <v>1115051.576259346</v>
       </c>
       <c r="J114">
-        <v>1342.859726876474</v>
+        <v>4842922.271796019</v>
       </c>
       <c r="K114">
-        <v>1338.183494288429</v>
+        <v>3985952.246324696</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4435,34 +4432,34 @@
         <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
         <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>178.3144467252635</v>
+        <v>1116577.444755914</v>
       </c>
       <c r="G115">
-        <v>-67.18523382046632</v>
+        <v>4841121.801259995</v>
       </c>
       <c r="H115">
-        <v>628.3912675206998</v>
+        <v>3985229.205903393</v>
       </c>
       <c r="I115">
-        <v>-1264.37308697756</v>
+        <v>1115085.843950849</v>
       </c>
       <c r="J115">
-        <v>1304.611016041353</v>
+        <v>4842873.620299133</v>
       </c>
       <c r="K115">
-        <v>1516.745972835072</v>
+        <v>3986165.149624869</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4470,34 +4467,34 @@
         <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
         <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>178.3144467252635</v>
+        <v>1116577.444755914</v>
       </c>
       <c r="G116">
-        <v>-56.0910605767924</v>
+        <v>4841138.314069784</v>
       </c>
       <c r="H116">
-        <v>628.3912675206998</v>
+        <v>3985229.205903393</v>
       </c>
       <c r="I116">
-        <v>-1229.601844617266</v>
+        <v>1115120.955452729</v>
       </c>
       <c r="J116">
-        <v>1266.362305206233</v>
+        <v>4842824.968802249</v>
       </c>
       <c r="K116">
-        <v>1682.603278857496</v>
+        <v>3986362.904316098</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4505,34 +4502,34 @@
         <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
         <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>138.3928121906864</v>
+        <v>1116528.764238319</v>
       </c>
       <c r="G117">
-        <v>-44.99688733311847</v>
+        <v>4841154.826879573</v>
       </c>
       <c r="H117">
-        <v>774.1738131055888</v>
+        <v>3985428.460354043</v>
       </c>
       <c r="I117">
-        <v>-1193.974392402807</v>
+        <v>1115156.931543041</v>
       </c>
       <c r="J117">
-        <v>1228.113594371113</v>
+        <v>4842776.317305364</v>
       </c>
       <c r="K117">
-        <v>1835.755412355703</v>
+        <v>3986545.510398382</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4540,34 +4537,34 @@
         <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
         <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>114.9408545869968</v>
+        <v>1116500.16687631</v>
       </c>
       <c r="G118">
-        <v>-33.90271408944455</v>
+        <v>4841171.339689363</v>
       </c>
       <c r="H118">
-        <v>861.0093528583756</v>
+        <v>3985547.14649511</v>
       </c>
       <c r="I118">
-        <v>-1157.469646954221</v>
+        <v>1115193.793511479</v>
       </c>
       <c r="J118">
-        <v>1189.864883535993</v>
+        <v>4842727.665808478</v>
       </c>
       <c r="K118">
-        <v>1976.202373329692</v>
+        <v>3986712.967871722</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4575,34 +4572,34 @@
         <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
         <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>100.136258424888</v>
+        <v>1116482.114123401</v>
       </c>
       <c r="G119">
-        <v>-22.80854084577062</v>
+        <v>4841187.852499153</v>
       </c>
       <c r="H119">
-        <v>923.0648441299276</v>
+        <v>3985631.963458441</v>
       </c>
       <c r="I119">
-        <v>-1120.066005732714</v>
+        <v>1115231.563171977</v>
       </c>
       <c r="J119">
-        <v>1151.616172700873</v>
+        <v>4842679.014311593</v>
       </c>
       <c r="K119">
-        <v>2103.944161779464</v>
+        <v>3986865.276736117</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4610,34 +4607,34 @@
         <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
         <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>89.81159315681711</v>
+        <v>1116469.524206803</v>
       </c>
       <c r="G120">
-        <v>-11.71436760209669</v>
+        <v>4841204.365308941</v>
       </c>
       <c r="H120">
-        <v>971.3874219368314</v>
+        <v>3985698.010382346</v>
       </c>
       <c r="I120">
-        <v>-1081.741334256846</v>
+        <v>1115270.262875618</v>
       </c>
       <c r="J120">
-        <v>1113.367461865753</v>
+        <v>4842630.362814709</v>
       </c>
       <c r="K120">
-        <v>2218.980777705018</v>
+        <v>3987002.436991568</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4645,34 +4642,34 @@
         <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
         <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>82.10908367838897</v>
+        <v>1116460.131751996</v>
       </c>
       <c r="G121">
-        <v>-0.620194358422772</v>
+        <v>4841220.878118731</v>
       </c>
       <c r="H121">
-        <v>1010.967361401479</v>
+        <v>3985752.107936091</v>
       </c>
       <c r="I121">
-        <v>-1042.472953003937</v>
+        <v>1115309.915523858</v>
       </c>
       <c r="J121">
-        <v>1075.118751030633</v>
+        <v>4842581.711317823</v>
       </c>
       <c r="K121">
-        <v>2321.312221106353</v>
+        <v>3987124.448638074</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4680,34 +4677,34 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
         <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>76.08679688981803</v>
+        <v>1116452.788163954</v>
       </c>
       <c r="G122">
-        <v>10.47397888525116</v>
+        <v>4841237.39092852</v>
       </c>
       <c r="H122">
-        <v>1044.488680932487</v>
+        <v>3985797.924615182</v>
       </c>
       <c r="I122">
-        <v>-1002.237623988923</v>
+        <v>1115350.544582082</v>
       </c>
       <c r="J122">
-        <v>1036.870040195513</v>
+        <v>4842533.059820938</v>
       </c>
       <c r="K122">
-        <v>2410.938491983471</v>
+        <v>3987231.311675636</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4715,34 +4712,34 @@
         <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
         <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>71.21432838078474</v>
+        <v>1116446.846666524</v>
       </c>
       <c r="G123">
-        <v>21.56815212892509</v>
+        <v>4841253.903738309</v>
       </c>
       <c r="H123">
-        <v>1073.562320483504</v>
+        <v>3985837.662239833</v>
       </c>
       <c r="I123">
-        <v>-961.0115370127374</v>
+        <v>1115392.174093486</v>
       </c>
       <c r="J123">
-        <v>998.6213293603925</v>
+        <v>4842484.408324054</v>
       </c>
       <c r="K123">
-        <v>2487.859590336371</v>
+        <v>3987323.026104252</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4750,34 +4747,34 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C124" t="s">
         <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>67.1684433604958</v>
+        <v>1116441.913106583</v>
       </c>
       <c r="G124">
-        <v>32.66232537259901</v>
+        <v>4841270.416548098</v>
       </c>
       <c r="H124">
-        <v>1099.23146726289</v>
+        <v>3985872.746630215</v>
       </c>
       <c r="I124">
-        <v>-918.7702955720686</v>
+        <v>1115434.828693309</v>
       </c>
       <c r="J124">
-        <v>960.3726185252723</v>
+        <v>4842435.756827168</v>
       </c>
       <c r="K124">
-        <v>2552.075516165054</v>
+        <v>3987399.591923925</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4785,34 +4782,34 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>63.73986022082494</v>
+        <v>1116437.732285737</v>
       </c>
       <c r="G125">
-        <v>43.75649861627294</v>
+        <v>4841286.929357887</v>
       </c>
       <c r="H125">
-        <v>1122.210519004066</v>
+        <v>3985904.1542196</v>
       </c>
       <c r="I125">
-        <v>-875.4889024221525</v>
+        <v>1115478.533623412</v>
       </c>
       <c r="J125">
-        <v>922.123907690152</v>
+        <v>4842387.105330284</v>
       </c>
       <c r="K125">
-        <v>2603.586269469518</v>
+        <v>3987461.009134652</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4820,34 +4817,34 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
         <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>60.78647033982548</v>
+        <v>1116434.130916461</v>
       </c>
       <c r="G126">
-        <v>54.85067185994686</v>
+        <v>4841303.442167677</v>
       </c>
       <c r="H126">
-        <v>1143.010210420701</v>
+        <v>3985932.583076225</v>
       </c>
       <c r="I126">
-        <v>-831.1417447840712</v>
+        <v>1115523.314747211</v>
       </c>
       <c r="J126">
-        <v>883.8751968550321</v>
+        <v>4842338.453833397</v>
       </c>
       <c r="K126">
-        <v>2642.391850249765</v>
+        <v>3987507.277736435</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4855,34 +4852,34 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
         <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>58.20800836693546</v>
+        <v>1116430.986734994</v>
       </c>
       <c r="G127">
-        <v>65.94484510362078</v>
+        <v>4841319.954977467</v>
       </c>
       <c r="H127">
-        <v>1162.008353576329</v>
+        <v>3985958.549590685</v>
       </c>
       <c r="I127">
-        <v>-785.7025791877894</v>
+        <v>1115569.198564986</v>
       </c>
       <c r="J127">
-        <v>845.6264860199118</v>
+        <v>4842289.802336513</v>
       </c>
       <c r="K127">
-        <v>2668.492258505794</v>
+        <v>3987538.397729274</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4890,34 +4887,34 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s">
         <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>55.93147014719757</v>
+        <v>1116428.21071993</v>
       </c>
       <c r="G128">
-        <v>77.03901834729473</v>
+        <v>4841336.467787256</v>
       </c>
       <c r="H128">
-        <v>1179.492303670175</v>
+        <v>3985982.446517832</v>
       </c>
       <c r="I128">
-        <v>-739.1445159419648</v>
+        <v>1115616.212229561</v>
       </c>
       <c r="J128">
-        <v>807.3777751847919</v>
+        <v>4842241.150839628</v>
       </c>
       <c r="K128">
-        <v>2681.887494237606</v>
+        <v>3987554.369113168</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4925,34 +4922,34 @@
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
         <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>53.90228480831041</v>
+        <v>1116425.736327442</v>
       </c>
       <c r="G129">
-        <v>88.13319159096864</v>
+        <v>4841352.980597045</v>
       </c>
       <c r="H129">
-        <v>1195.685713471081</v>
+        <v>3986004.579544533</v>
       </c>
       <c r="I129">
-        <v>-691.4400032213443</v>
+        <v>1115664.383562374</v>
       </c>
       <c r="J129">
-        <v>769.1290643496716</v>
+        <v>4842192.499342743</v>
       </c>
       <c r="K129">
-        <v>2682.577557445199</v>
+        <v>3987555.191888117</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4960,34 +4957,34 @@
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C130" t="s">
         <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>52.0787413141103</v>
+        <v>1116423.512695013</v>
       </c>
       <c r="G130">
-        <v>99.22736483464259</v>
+        <v>4841369.493406835</v>
       </c>
       <c r="H130">
-        <v>1210.766073741093</v>
+        <v>3986025.191263784</v>
       </c>
       <c r="I130">
-        <v>-642.5608107623259</v>
+        <v>1115713.741069941</v>
       </c>
       <c r="J130">
-        <v>730.8803535145514</v>
+        <v>4842143.847845857</v>
       </c>
       <c r="K130">
-        <v>2670.562448128574</v>
+        <v>3987540.866054121</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4995,34 +4992,34 @@
         <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C131" t="s">
         <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>50.42834248155386</v>
+        <v>1116421.500195517</v>
       </c>
       <c r="G131">
-        <v>110.3215380783165</v>
+        <v>4841386.006216624</v>
       </c>
       <c r="H131">
-        <v>1224.87660336182</v>
+        <v>3986044.477426038</v>
       </c>
       <c r="I131">
-        <v>-592.4780131570362</v>
+        <v>1115764.313960724</v>
       </c>
       <c r="J131">
-        <v>692.6316426794314</v>
+        <v>4842095.196348973</v>
       </c>
       <c r="K131">
-        <v>2645.842166287732</v>
+        <v>3987511.391611181</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5030,34 +5027,34 @@
         <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C132" t="s">
         <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>48.92534617957809</v>
+        <v>1116419.667438948</v>
       </c>
       <c r="G132">
-        <v>121.4157113219904</v>
+        <v>4841402.519026414</v>
       </c>
       <c r="H132">
-        <v>1238.134541739699</v>
+        <v>3986062.598273205</v>
       </c>
       <c r="I132">
-        <v>-541.1619727360454</v>
+        <v>1115816.132162416</v>
       </c>
       <c r="J132">
-        <v>654.3829318443112</v>
+        <v>4842046.544852087</v>
       </c>
       <c r="K132">
-        <v>2608.416711922672</v>
+        <v>3987466.768559297</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5065,34 +5062,34 @@
         <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
         <v>16</v>
       </c>
       <c r="D133" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>47.54906284579455</v>
+        <v>1116417.989196416</v>
       </c>
       <c r="G133">
-        <v>132.5098845656644</v>
+        <v>4841419.031836201</v>
       </c>
       <c r="H133">
-        <v>1250.63707559909</v>
+        <v>3986079.686639346</v>
       </c>
       <c r="I133">
-        <v>-488.5823220295793</v>
+        <v>1115869.226339653</v>
       </c>
       <c r="J133">
-        <v>616.1342210091909</v>
+        <v>4841997.893355202</v>
       </c>
       <c r="K133">
-        <v>2558.286085033395</v>
+        <v>3987406.996898468</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5100,34 +5097,34 @@
         <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C134" t="s">
         <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>46.28264918216219</v>
+        <v>1116416.444929169</v>
       </c>
       <c r="G134">
-        <v>143.6040578093383</v>
+        <v>4841435.544645991</v>
       </c>
       <c r="H134">
-        <v>1262.465666456044</v>
+        <v>3986095.853865427</v>
       </c>
       <c r="I134">
-        <v>-434.7079457968584</v>
+        <v>1115923.627912159</v>
       </c>
       <c r="J134">
-        <v>577.885510174071</v>
+        <v>4841949.241858317</v>
       </c>
       <c r="K134">
-        <v>2495.450285619899</v>
+        <v>3987332.076628694</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5135,34 +5132,34 @@
         <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
         <v>16</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>45.11223586062239</v>
+        <v>1116415.017724923</v>
       </c>
       <c r="G135">
-        <v>154.6982310530122</v>
+        <v>4841452.057455781</v>
       </c>
       <c r="H135">
-        <v>1273.689270243952</v>
+        <v>3986111.194199883</v>
       </c>
       <c r="I135">
-        <v>-379.5069626129234</v>
+        <v>1115979.369073339</v>
       </c>
       <c r="J135">
-        <v>539.6367993389507</v>
+        <v>4841900.590361432</v>
       </c>
       <c r="K135">
-        <v>2419.909313682185</v>
+        <v>3987242.007749976</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5170,34 +5167,34 @@
         <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
         <v>16</v>
       </c>
       <c r="D136" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>44.02628525479857</v>
+        <v>1116413.693514675</v>
       </c>
       <c r="G136">
-        <v>165.7924042966861</v>
+        <v>4841468.57026557</v>
       </c>
       <c r="H136">
-        <v>1284.366772913481</v>
+        <v>3986125.788127573</v>
       </c>
       <c r="I136">
-        <v>-322.9467060020575</v>
+        <v>1116036.482809332</v>
       </c>
       <c r="J136">
-        <v>501.3880885038305</v>
+        <v>4841851.938864547</v>
       </c>
       <c r="K136">
-        <v>2331.663169220254</v>
+        <v>3987136.790262313</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5205,34 +5202,34 @@
         <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
         <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>43.01511083512653</v>
+        <v>1116412.460486652</v>
       </c>
       <c r="G137">
-        <v>176.8865775403601</v>
+        <v>4841485.083075359</v>
       </c>
       <c r="H137">
-        <v>1294.548860511874</v>
+        <v>3986139.704925793</v>
       </c>
       <c r="I137">
-        <v>-264.9937051066312</v>
+        <v>1116095.00291853</v>
       </c>
       <c r="J137">
-        <v>463.1393776687105</v>
+        <v>4841803.287367661</v>
       </c>
       <c r="K137">
-        <v>2230.711852234106</v>
+        <v>3987016.424165706</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5240,34 +5237,34 @@
         <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
         <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>42.07051226886453</v>
+        <v>1116411.308641351</v>
       </c>
       <c r="G138">
-        <v>187.980750784034</v>
+        <v>4841501.595885149</v>
       </c>
       <c r="H138">
-        <v>1304.279474343248</v>
+        <v>3986153.004653176</v>
       </c>
       <c r="I138">
-        <v>-205.6136648799382</v>
+        <v>1116154.96403158</v>
       </c>
       <c r="J138">
-        <v>424.8906668335903</v>
+        <v>4841754.635870776</v>
       </c>
       <c r="K138">
-        <v>2117.055362723738</v>
+        <v>3986880.909460153</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5275,34 +5272,34 @@
         <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
         <v>16</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>41.18549470212354</v>
+        <v>1116410.229449236</v>
       </c>
       <c r="G139">
-        <v>199.0749240277079</v>
+        <v>4841518.108694938</v>
       </c>
       <c r="H139">
-        <v>1313.596957002789</v>
+        <v>3986165.739716083</v>
       </c>
       <c r="I139">
-        <v>-144.7714457912979</v>
+        <v>1116216.401631875</v>
       </c>
       <c r="J139">
-        <v>386.6419559984703</v>
+        <v>4841705.984373892</v>
       </c>
       <c r="K139">
-        <v>1990.693700689154</v>
+        <v>3986730.246145657</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5310,34 +5307,34 @@
         <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s">
         <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>40.3540502070167</v>
+        <v>1116409.215584226</v>
       </c>
       <c r="G140">
-        <v>210.1690972713818</v>
+        <v>4841534.621504728</v>
       </c>
       <c r="H140">
-        <v>1322.534964886473</v>
+        <v>3986177.956115814</v>
       </c>
       <c r="I140">
-        <v>-82.43104303141496</v>
+        <v>1116279.352076557</v>
       </c>
       <c r="J140">
-        <v>348.3932451633501</v>
+        <v>4841657.332877006</v>
       </c>
       <c r="K140">
-        <v>1851.626866130352</v>
+        <v>3986564.434222215</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5345,34 +5342,34 @@
         <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
         <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>39.57098576124872</v>
+        <v>1116408.260713942</v>
       </c>
       <c r="G141">
-        <v>221.2632705150558</v>
+        <v>4841551.134314517</v>
       </c>
       <c r="H141">
-        <v>1331.123202048934</v>
+        <v>3986189.694451642</v>
       </c>
       <c r="I141">
-        <v>-18.55556520568906</v>
+        <v>1116343.852618025</v>
       </c>
       <c r="J141">
-        <v>310.1445343282299</v>
+        <v>4841608.681380121</v>
       </c>
       <c r="K141">
-        <v>1699.854859047331</v>
+        <v>3986383.473689829</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5380,34 +5377,34 @@
         <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C142" t="s">
         <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>38.83178649259653</v>
+        <v>1116407.359332938</v>
       </c>
       <c r="G142">
-        <v>232.3574437587297</v>
+        <v>4841567.647124305</v>
       </c>
       <c r="H142">
-        <v>1339.388015804632</v>
+        <v>3986200.99073487</v>
       </c>
       <c r="I142">
-        <v>46.89278749713345</v>
+        <v>1116409.941425987</v>
       </c>
       <c r="J142">
-        <v>271.8958234931098</v>
+        <v>4841560.029883236</v>
       </c>
       <c r="K142">
-        <v>1535.377679440094</v>
+        <v>3986187.364548499</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5415,34 +5412,34 @@
         <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
         <v>16</v>
       </c>
       <c r="D143" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>38.13250595459625</v>
+        <v>1116406.506628911</v>
       </c>
       <c r="G143">
-        <v>243.4516170024036</v>
+        <v>4841584.159934095</v>
       </c>
       <c r="H143">
-        <v>1347.352884197247</v>
+        <v>3986211.877055106</v>
       </c>
       <c r="I143">
-        <v>113.9527456738824</v>
+        <v>1116477.657610045</v>
       </c>
       <c r="J143">
-        <v>233.6471126579897</v>
+        <v>4841511.378386351</v>
       </c>
       <c r="K143">
-        <v>1358.195327308638</v>
+        <v>3985976.106798224</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5450,34 +5447,34 @@
         <v>17</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C144" t="s">
         <v>16</v>
       </c>
       <c r="D144" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>37.46967734021685</v>
+        <v>1116405.698374429</v>
       </c>
       <c r="G144">
-        <v>254.5457902460776</v>
+        <v>4841600.672743884</v>
       </c>
       <c r="H144">
-        <v>1355.038818071879</v>
+        <v>3986222.38212981</v>
       </c>
       <c r="I144">
-        <v>182.6639936267042</v>
+        <v>1116547.041242837</v>
       </c>
       <c r="J144">
-        <v>195.3984018228696</v>
+        <v>4841462.726889466</v>
       </c>
       <c r="K144">
-        <v>1168.307802652965</v>
+        <v>3985749.700439004</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5485,34 +5482,34 @@
         <v>17</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
         <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>36.84024107147221</v>
+        <v>1116404.930838638</v>
       </c>
       <c r="G145">
-        <v>265.6399634897515</v>
+        <v>4841617.185553674</v>
       </c>
       <c r="H145">
-        <v>1362.464695096342</v>
+        <v>3986232.531760832</v>
       </c>
       <c r="I145">
-        <v>253.0671928471745</v>
+        <v>1116618.133383756</v>
       </c>
       <c r="J145">
-        <v>157.1496909877494</v>
+        <v>4841414.075392581</v>
       </c>
       <c r="K145">
-        <v>965.7151054730729</v>
+        <v>3985508.14547084</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5520,34 +5517,34 @@
         <v>17</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
         <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>36.24148531229288</v>
+        <v>1116404.200714719</v>
       </c>
       <c r="G146">
-        <v>276.7341367334254</v>
+        <v>4841633.698363463</v>
       </c>
       <c r="H146">
-        <v>1369.647539101386</v>
+        <v>3986242.349216211</v>
       </c>
       <c r="I146">
-        <v>325.2040060786939</v>
+        <v>1116690.976103241</v>
       </c>
       <c r="J146">
-        <v>118.9009801526292</v>
+        <v>4841365.423895696</v>
       </c>
       <c r="K146">
-        <v>750.4172357689637</v>
+        <v>3985251.441893731</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5555,34 +5552,34 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
         <v>16</v>
       </c>
       <c r="D147" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>35.67099676529804</v>
+        <v>1116403.505059892</v>
       </c>
       <c r="G147">
-        <v>287.8283099770993</v>
+        <v>4841650.211173252</v>
       </c>
       <c r="H147">
-        <v>1376.602755142075</v>
+        <v>3986251.855551457</v>
       </c>
       <c r="I147">
-        <v>399.117121971387</v>
+        <v>1116765.612507679</v>
       </c>
       <c r="J147">
-        <v>80.65226931750921</v>
+        <v>4841316.772398811</v>
       </c>
       <c r="K147">
-        <v>522.414193540637</v>
+        <v>3984979.589707678</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5590,34 +5587,34 @@
         <v>17</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C148" t="s">
         <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>35.12661971597244</v>
+        <v>1116402.841245476</v>
       </c>
       <c r="G148">
-        <v>298.9224832207732</v>
+        <v>4841666.723983042</v>
       </c>
       <c r="H148">
-        <v>1383.344328444628</v>
+        <v>3986261.069881469</v>
       </c>
       <c r="I148">
-        <v>474.8502803441195</v>
+        <v>1116842.086764912</v>
       </c>
       <c r="J148">
-        <v>42.403558482389</v>
+        <v>4841268.120901926</v>
       </c>
       <c r="K148">
-        <v>281.705978788092</v>
+        <v>3984692.58891268</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5625,34 +5622,34 @@
         <v>17</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
         <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>34.60642173920002</v>
+        <v>1116402.206915067</v>
       </c>
       <c r="G149">
-        <v>310.0166564644472</v>
+        <v>4841683.236792832</v>
       </c>
       <c r="H149">
-        <v>1389.884993699025</v>
+        <v>3986270.009611921</v>
       </c>
       <c r="I149">
-        <v>552.4482980685517</v>
+        <v>1116920.444130374</v>
       </c>
       <c r="J149">
-        <v>4.1548476472688</v>
+        <v>4841219.46940504</v>
       </c>
       <c r="K149">
-        <v>28.29259151132928</v>
+        <v>3984390.439508737</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5660,34 +5657,34 @@
         <v>17</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C150" t="s">
         <v>16</v>
       </c>
       <c r="D150" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>34.10866482442286</v>
+        <v>1116401.599949332</v>
       </c>
       <c r="G150">
-        <v>321.1108297081211</v>
+        <v>4841699.74960262</v>
       </c>
       <c r="H150">
-        <v>1396.236379848361</v>
+        <v>3986278.690637162</v>
       </c>
       <c r="I150">
-        <v>631.9570955905803</v>
+        <v>1117000.730973874</v>
       </c>
       <c r="J150">
-        <v>-34.09386318785123</v>
+        <v>4841170.817908156</v>
       </c>
       <c r="K150">
-        <v>-237.8259682896505</v>
+        <v>3984073.14149585</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5695,34 +5692,34 @@
         <v>17</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C151" t="s">
         <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>33.63178093605485</v>
+        <v>1116401.018436205</v>
       </c>
       <c r="G151">
-        <v>332.205002951795</v>
+        <v>4841716.262412409</v>
       </c>
       <c r="H151">
-        <v>1402.409134511373</v>
+        <v>3986287.127510277</v>
       </c>
       <c r="I151">
-        <v>713.4237241048367</v>
+        <v>1117082.994807032</v>
       </c>
       <c r="J151">
-        <v>-72.34257402297143</v>
+        <v>4841122.16641127</v>
       </c>
       <c r="K151">
-        <v>-516.6497006148487</v>
+        <v>3983740.694874018</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5730,34 +5727,34 @@
         <v>17</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C152" t="s">
         <v>16</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>33.17435122605823</v>
+        <v>1116400.460645541</v>
       </c>
       <c r="G152">
-        <v>343.299176195469</v>
+        <v>4841732.775222198</v>
       </c>
       <c r="H152">
-        <v>1408.413031382173</v>
+        <v>3986295.333589872</v>
       </c>
       <c r="I152">
-        <v>796.8963933983332</v>
+        <v>1117167.2843114</v>
       </c>
       <c r="J152">
-        <v>-110.5912848580916</v>
+        <v>4841073.514914385</v>
       </c>
       <c r="K152">
-        <v>-808.1786054642655</v>
+        <v>3983393.099643242</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5765,34 +5762,34 @@
         <v>17</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C153" t="s">
         <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>32.73508827087789</v>
+        <v>1116399.925007452</v>
       </c>
       <c r="G153">
-        <v>354.3933494391429</v>
+        <v>4841749.288031988</v>
       </c>
       <c r="H153">
-        <v>1414.257063327664</v>
+        <v>3986303.321167331</v>
       </c>
       <c r="I153">
-        <v>882.4245003797342</v>
+        <v>1117253.649367268</v>
       </c>
       <c r="J153">
-        <v>-148.8399956932118</v>
+        <v>4841024.8634175</v>
       </c>
       <c r="K153">
-        <v>-1112.4126828379</v>
+        <v>3983030.355803521</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5800,34 +5797,34 @@
         <v>17</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C154" t="s">
         <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>32.31282082621608</v>
+        <v>1116399.410093722</v>
       </c>
       <c r="G154">
-        <v>365.4875226828168</v>
+        <v>4841765.800841778</v>
       </c>
       <c r="H154">
-        <v>1419.949523409012</v>
+        <v>3986311.101577542</v>
       </c>
       <c r="I154">
-        <v>970.0586583111362</v>
+        <v>1117342.141083183</v>
       </c>
       <c r="J154">
-        <v>-187.0887065283317</v>
+        <v>4840976.211920615</v>
       </c>
       <c r="K154">
-        <v>-1429.351932735749</v>
+        <v>3982652.463354855</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5835,34 +5832,34 @@
         <v>17</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s">
         <v>16</v>
       </c>
       <c r="D155" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>31.90648068853806</v>
+        <v>1116398.91460178</v>
       </c>
       <c r="G155">
-        <v>376.5816959264907</v>
+        <v>4841782.313651566</v>
       </c>
       <c r="H155">
-        <v>1425.498075659445</v>
+        <v>3986318.685295648</v>
       </c>
       <c r="I155">
-        <v>1059.850726759653</v>
+        <v>1117432.811826192</v>
       </c>
       <c r="J155">
-        <v>-225.3374173634519</v>
+        <v>4840927.56042373</v>
       </c>
       <c r="K155">
-        <v>-1758.996355157819</v>
+        <v>3982259.422297245</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5870,34 +5867,34 @@
         <v>17</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C156" t="s">
         <v>16</v>
       </c>
       <c r="D156" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>31.51509132773878</v>
+        <v>1116398.437340843</v>
       </c>
       <c r="G156">
-        <v>387.6758691701647</v>
+        <v>4841798.826461356</v>
       </c>
       <c r="H156">
-        <v>1430.909817134259</v>
+        <v>3986326.08202185</v>
       </c>
       <c r="I156">
-        <v>1151.853842286526</v>
+        <v>1117525.715252831</v>
       </c>
       <c r="J156">
-        <v>-263.5861281985721</v>
+        <v>4840878.908926845</v>
       </c>
       <c r="K156">
-        <v>-2101.345950104107</v>
+        <v>3981851.23263069</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5905,34 +5902,34 @@
         <v>17</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
         <v>16</v>
       </c>
       <c r="D157" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>31.1377580155903</v>
+        <v>1116397.97721988</v>
       </c>
       <c r="G157">
-        <v>398.7700424138386</v>
+        <v>4841815.339271146</v>
       </c>
       <c r="H157">
-        <v>1436.191332493514</v>
+        <v>3986333.300756008</v>
       </c>
       <c r="I157">
-        <v>1246.122449891933</v>
+        <v>1117620.906340882</v>
       </c>
       <c r="J157">
-        <v>-301.8348390336923</v>
+        <v>4840830.257429959</v>
       </c>
       <c r="K157">
-        <v>-2456.400717574612</v>
+        <v>3981427.894355191</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5940,34 +5937,34 @@
         <v>17</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C158" t="s">
         <v>16</v>
       </c>
       <c r="D158" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>30.77365922283236</v>
+        <v>1116397.533237115</v>
       </c>
       <c r="G158">
-        <v>409.8642156575125</v>
+        <v>4841831.852080935</v>
       </c>
       <c r="H158">
-        <v>1441.348742170484</v>
+        <v>3986340.349863485</v>
       </c>
       <c r="I158">
-        <v>1342.712335234096</v>
+        <v>1117718.441421902</v>
       </c>
       <c r="J158">
-        <v>-340.0835498688125</v>
+        <v>4840781.605933075</v>
       </c>
       <c r="K158">
-        <v>-2824.160657569334</v>
+        <v>3980989.407470747</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5975,34 +5972,34 @@
         <v>17</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C159" t="s">
         <v>16</v>
       </c>
       <c r="D159" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>30.42203909664942</v>
+        <v>1116397.10447086</v>
       </c>
       <c r="G159">
-        <v>420.9583889011864</v>
+        <v>4841848.364890724</v>
       </c>
       <c r="H159">
-        <v>1446.38774500966</v>
+        <v>3986347.237133414</v>
       </c>
       <c r="I159">
-        <v>1441.680657641743</v>
+        <v>1117818.378214561</v>
       </c>
       <c r="J159">
-        <v>-378.3322607039323</v>
+        <v>4840732.954436189</v>
       </c>
       <c r="K159">
-        <v>-3204.625770088273</v>
+        <v>3980535.771977358</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6010,1889 +6007,34 @@
         <v>17</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C160" t="s">
         <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>30.08220086178897</v>
+        <v>1116396.690071465</v>
       </c>
       <c r="G160">
-        <v>432.0525621448604</v>
+        <v>4841864.877700514</v>
       </c>
       <c r="H160">
-        <v>1451.313656119192</v>
+        <v>3986353.969830447</v>
       </c>
       <c r="I160">
-        <v>1543.085983939492</v>
+        <v>1117920.775858799</v>
       </c>
       <c r="J160">
-        <v>-416.5809715390525</v>
+        <v>4840684.302939304</v>
       </c>
       <c r="K160">
-        <v>-3597.796055131432</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161">
-        <v>17</v>
-      </c>
-      <c r="B161" t="s">
-        <v>13</v>
-      </c>
-      <c r="C161" t="s">
-        <v>17</v>
-      </c>
-      <c r="D161" t="s">
-        <v>20</v>
-      </c>
-      <c r="E161">
-        <v>152.142</v>
-      </c>
-      <c r="F161">
-        <v>196.7593224052256</v>
-      </c>
-      <c r="G161">
-        <v>-82.50450785938439</v>
-      </c>
-      <c r="H161">
-        <v>1073.605063932009</v>
-      </c>
-      <c r="I161">
-        <v>-1369.173519915681</v>
-      </c>
-      <c r="J161">
-        <v>1063.477114089815</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162">
-        <v>17</v>
-      </c>
-      <c r="B162" t="s">
-        <v>13</v>
-      </c>
-      <c r="C162" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" t="s">
-        <v>20</v>
-      </c>
-      <c r="E162">
-        <v>153.142</v>
-      </c>
-      <c r="F162">
-        <v>196.7593224052256</v>
-      </c>
-      <c r="G162">
-        <v>-82.50450785938439</v>
-      </c>
-      <c r="H162">
-        <v>1073.605063932009</v>
-      </c>
-      <c r="I162">
-        <v>-1342.142388883121</v>
-      </c>
-      <c r="J162">
-        <v>1037.607188763636</v>
-      </c>
-      <c r="K162">
-        <v>376.2807973666867</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163">
-        <v>17</v>
-      </c>
-      <c r="B163" t="s">
-        <v>13</v>
-      </c>
-      <c r="C163" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" t="s">
-        <v>20</v>
-      </c>
-      <c r="E163">
-        <v>154.142</v>
-      </c>
-      <c r="F163">
-        <v>196.7593224052256</v>
-      </c>
-      <c r="G163">
-        <v>-82.50450785938439</v>
-      </c>
-      <c r="H163">
-        <v>1073.605063932009</v>
-      </c>
-      <c r="I163">
-        <v>-1314.445641117069</v>
-      </c>
-      <c r="J163">
-        <v>1011.737263437458</v>
-      </c>
-      <c r="K163">
-        <v>733.7985093674156</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164">
-        <v>17</v>
-      </c>
-      <c r="B164" t="s">
-        <v>13</v>
-      </c>
-      <c r="C164" t="s">
-        <v>17</v>
-      </c>
-      <c r="D164" t="s">
-        <v>20</v>
-      </c>
-      <c r="E164">
-        <v>155.142</v>
-      </c>
-      <c r="F164">
-        <v>196.7593224052256</v>
-      </c>
-      <c r="G164">
-        <v>-82.50450785938439</v>
-      </c>
-      <c r="H164">
-        <v>1073.605063932009</v>
-      </c>
-      <c r="I164">
-        <v>-1286.066886417819</v>
-      </c>
-      <c r="J164">
-        <v>985.8673381112799</v>
-      </c>
-      <c r="K164">
-        <v>1072.553136002189</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165">
-        <v>17</v>
-      </c>
-      <c r="B165" t="s">
-        <v>13</v>
-      </c>
-      <c r="C165" t="s">
-        <v>17</v>
-      </c>
-      <c r="D165" t="s">
-        <v>20</v>
-      </c>
-      <c r="E165">
-        <v>156.142</v>
-      </c>
-      <c r="F165">
-        <v>196.7593224052256</v>
-      </c>
-      <c r="G165">
-        <v>-82.50450785938439</v>
-      </c>
-      <c r="H165">
-        <v>1073.605063932009</v>
-      </c>
-      <c r="I165">
-        <v>-1256.989330992075</v>
-      </c>
-      <c r="J165">
-        <v>959.9974127851017</v>
-      </c>
-      <c r="K165">
-        <v>1392.544677271006</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166">
-        <v>17</v>
-      </c>
-      <c r="B166" t="s">
-        <v>13</v>
-      </c>
-      <c r="C166" t="s">
-        <v>17</v>
-      </c>
-      <c r="D166" t="s">
-        <v>20</v>
-      </c>
-      <c r="E166">
-        <v>157.142</v>
-      </c>
-      <c r="F166">
-        <v>196.7593224052256</v>
-      </c>
-      <c r="G166">
-        <v>-82.50450785938439</v>
-      </c>
-      <c r="H166">
-        <v>1073.605063932009</v>
-      </c>
-      <c r="I166">
-        <v>-1227.195767514832</v>
-      </c>
-      <c r="J166">
-        <v>934.1274874589234</v>
-      </c>
-      <c r="K166">
-        <v>1693.773133173868</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167">
-        <v>17</v>
-      </c>
-      <c r="B167" t="s">
-        <v>13</v>
-      </c>
-      <c r="C167" t="s">
-        <v>17</v>
-      </c>
-      <c r="D167" t="s">
-        <v>20</v>
-      </c>
-      <c r="E167">
-        <v>158.142</v>
-      </c>
-      <c r="F167">
-        <v>196.7593224052256</v>
-      </c>
-      <c r="G167">
-        <v>-82.50450785938439</v>
-      </c>
-      <c r="H167">
-        <v>1073.605063932009</v>
-      </c>
-      <c r="I167">
-        <v>-1196.668564946539</v>
-      </c>
-      <c r="J167">
-        <v>908.2575621327451</v>
-      </c>
-      <c r="K167">
-        <v>1976.238503710773</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168">
-        <v>17</v>
-      </c>
-      <c r="B168" t="s">
-        <v>13</v>
-      </c>
-      <c r="C168" t="s">
-        <v>17</v>
-      </c>
-      <c r="D168" t="s">
-        <v>20</v>
-      </c>
-      <c r="E168">
-        <v>159.142</v>
-      </c>
-      <c r="F168">
-        <v>196.7593224052256</v>
-      </c>
-      <c r="G168">
-        <v>-82.50450785938439</v>
-      </c>
-      <c r="H168">
-        <v>1073.605063932009</v>
-      </c>
-      <c r="I168">
-        <v>-1165.389658099512</v>
-      </c>
-      <c r="J168">
-        <v>882.3876368065667</v>
-      </c>
-      <c r="K168">
-        <v>2239.940788881722</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169">
-        <v>17</v>
-      </c>
-      <c r="B169" t="s">
-        <v>13</v>
-      </c>
-      <c r="C169" t="s">
-        <v>17</v>
-      </c>
-      <c r="D169" t="s">
-        <v>20</v>
-      </c>
-      <c r="E169">
-        <v>160.142</v>
-      </c>
-      <c r="F169">
-        <v>196.7593224052256</v>
-      </c>
-      <c r="G169">
-        <v>-68.88069126268992</v>
-      </c>
-      <c r="H169">
-        <v>1073.605063932009</v>
-      </c>
-      <c r="I169">
-        <v>-1133.340536947444</v>
-      </c>
-      <c r="J169">
-        <v>856.5177114803885</v>
-      </c>
-      <c r="K169">
-        <v>2484.879988686714</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170">
-        <v>17</v>
-      </c>
-      <c r="B170" t="s">
-        <v>13</v>
-      </c>
-      <c r="C170" t="s">
-        <v>17</v>
-      </c>
-      <c r="D170" t="s">
-        <v>20</v>
-      </c>
-      <c r="E170">
-        <v>161.142</v>
-      </c>
-      <c r="F170">
-        <v>152.7081874322141</v>
-      </c>
-      <c r="G170">
-        <v>-55.25687466599545</v>
-      </c>
-      <c r="H170">
-        <v>1322.674214415835</v>
-      </c>
-      <c r="I170">
-        <v>-1100.502235671658</v>
-      </c>
-      <c r="J170">
-        <v>830.6477861542103</v>
-      </c>
-      <c r="K170">
-        <v>2711.056103125749</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171">
-        <v>17</v>
-      </c>
-      <c r="B171" t="s">
-        <v>13</v>
-      </c>
-      <c r="C171" t="s">
-        <v>17</v>
-      </c>
-      <c r="D171" t="s">
-        <v>20</v>
-      </c>
-      <c r="E171">
-        <v>162.142</v>
-      </c>
-      <c r="F171">
-        <v>126.8303554790487</v>
-      </c>
-      <c r="G171">
-        <v>-41.63305806930099</v>
-      </c>
-      <c r="H171">
-        <v>1471.032538323941</v>
-      </c>
-      <c r="I171">
-        <v>-1066.855321437638</v>
-      </c>
-      <c r="J171">
-        <v>804.777860828032</v>
-      </c>
-      <c r="K171">
-        <v>2918.469132198829</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172">
-        <v>17</v>
-      </c>
-      <c r="B172" t="s">
-        <v>13</v>
-      </c>
-      <c r="C172" t="s">
-        <v>17</v>
-      </c>
-      <c r="D172" t="s">
-        <v>20</v>
-      </c>
-      <c r="E172">
-        <v>163.142</v>
-      </c>
-      <c r="F172">
-        <v>110.4943694564039</v>
-      </c>
-      <c r="G172">
-        <v>-28.00924147260653</v>
-      </c>
-      <c r="H172">
-        <v>1577.054205265282</v>
-      </c>
-      <c r="I172">
-        <v>-1032.379882895198</v>
-      </c>
-      <c r="J172">
-        <v>778.9079355018537</v>
-      </c>
-      <c r="K172">
-        <v>3107.119075905954</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="A173">
-        <v>17</v>
-      </c>
-      <c r="B173" t="s">
-        <v>13</v>
-      </c>
-      <c r="C173" t="s">
-        <v>17</v>
-      </c>
-      <c r="D173" t="s">
-        <v>20</v>
-      </c>
-      <c r="E173">
-        <v>164.142</v>
-      </c>
-      <c r="F173">
-        <v>99.1017191158717</v>
-      </c>
-      <c r="G173">
-        <v>-14.38542487591206</v>
-      </c>
-      <c r="H173">
-        <v>1659.613220511355</v>
-      </c>
-      <c r="I173">
-        <v>-997.0555183954738</v>
-      </c>
-      <c r="J173">
-        <v>753.0380101756754</v>
-      </c>
-      <c r="K173">
-        <v>3277.005934247121</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174">
-        <v>17</v>
-      </c>
-      <c r="B174" t="s">
-        <v>13</v>
-      </c>
-      <c r="C174" t="s">
-        <v>17</v>
-      </c>
-      <c r="D174" t="s">
-        <v>20</v>
-      </c>
-      <c r="E174">
-        <v>165.142</v>
-      </c>
-      <c r="F174">
-        <v>90.60246079088357</v>
-      </c>
-      <c r="G174">
-        <v>-0.7616082792176</v>
-      </c>
-      <c r="H174">
-        <v>1727.235457858834</v>
-      </c>
-      <c r="I174">
-        <v>-960.8613239177628</v>
-      </c>
-      <c r="J174">
-        <v>727.1680848494972</v>
-      </c>
-      <c r="K174">
-        <v>3428.129707222332</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
-      <c r="A175">
-        <v>17</v>
-      </c>
-      <c r="B175" t="s">
-        <v>13</v>
-      </c>
-      <c r="C175" t="s">
-        <v>17</v>
-      </c>
-      <c r="D175" t="s">
-        <v>20</v>
-      </c>
-      <c r="E175">
-        <v>166.142</v>
-      </c>
-      <c r="F175">
-        <v>83.95722766698056</v>
-      </c>
-      <c r="G175">
-        <v>12.86220831747687</v>
-      </c>
-      <c r="H175">
-        <v>1784.506556708067</v>
-      </c>
-      <c r="I175">
-        <v>-923.7758806990865</v>
-      </c>
-      <c r="J175">
-        <v>701.2981595233189</v>
-      </c>
-      <c r="K175">
-        <v>3560.490394831587</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
-      <c r="A176">
-        <v>17</v>
-      </c>
-      <c r="B176" t="s">
-        <v>13</v>
-      </c>
-      <c r="C176" t="s">
-        <v>17</v>
-      </c>
-      <c r="D176" t="s">
-        <v>20</v>
-      </c>
-      <c r="E176">
-        <v>167.142</v>
-      </c>
-      <c r="F176">
-        <v>78.58075021445363</v>
-      </c>
-      <c r="G176">
-        <v>26.48602491417134</v>
-      </c>
-      <c r="H176">
-        <v>1834.178804338207</v>
-      </c>
-      <c r="I176">
-        <v>-885.7772425591322</v>
-      </c>
-      <c r="J176">
-        <v>675.4282341971407</v>
-      </c>
-      <c r="K176">
-        <v>3674.087997074886</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
-      <c r="A177">
-        <v>17</v>
-      </c>
-      <c r="B177" t="s">
-        <v>13</v>
-      </c>
-      <c r="C177" t="s">
-        <v>17</v>
-      </c>
-      <c r="D177" t="s">
-        <v>20</v>
-      </c>
-      <c r="E177">
-        <v>168.142</v>
-      </c>
-      <c r="F177">
-        <v>74.11635818261769</v>
-      </c>
-      <c r="G177">
-        <v>40.1098415108658</v>
-      </c>
-      <c r="H177">
-        <v>1878.034483743006</v>
-      </c>
-      <c r="I177">
-        <v>-846.842922913088</v>
-      </c>
-      <c r="J177">
-        <v>649.5583088709623</v>
-      </c>
-      <c r="K177">
-        <v>3768.922513952229</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
-      <c r="A178">
-        <v>17</v>
-      </c>
-      <c r="B178" t="s">
-        <v>13</v>
-      </c>
-      <c r="C178" t="s">
-        <v>17</v>
-      </c>
-      <c r="D178" t="s">
-        <v>20</v>
-      </c>
-      <c r="E178">
-        <v>169.142</v>
-      </c>
-      <c r="F178">
-        <v>70.33312183940085</v>
-      </c>
-      <c r="G178">
-        <v>53.73365810756027</v>
-      </c>
-      <c r="H178">
-        <v>1917.294141839495</v>
-      </c>
-      <c r="I178">
-        <v>-806.9498814646769</v>
-      </c>
-      <c r="J178">
-        <v>623.688383544784</v>
-      </c>
-      <c r="K178">
-        <v>3844.993945463615</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
-      <c r="A179">
-        <v>17</v>
-      </c>
-      <c r="B179" t="s">
-        <v>13</v>
-      </c>
-      <c r="C179" t="s">
-        <v>17</v>
-      </c>
-      <c r="D179" t="s">
-        <v>20</v>
-      </c>
-      <c r="E179">
-        <v>170.142</v>
-      </c>
-      <c r="F179">
-        <v>67.07423282364297</v>
-      </c>
-      <c r="G179">
-        <v>67.35747470425473</v>
-      </c>
-      <c r="H179">
-        <v>1952.830367734593</v>
-      </c>
-      <c r="I179">
-        <v>-766.0745105715238</v>
-      </c>
-      <c r="J179">
-        <v>597.8184582186058</v>
-      </c>
-      <c r="K179">
-        <v>3902.302291609045</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
-      <c r="A180">
-        <v>17</v>
-      </c>
-      <c r="B180" t="s">
-        <v>13</v>
-      </c>
-      <c r="C180" t="s">
-        <v>17</v>
-      </c>
-      <c r="D180" t="s">
-        <v>20</v>
-      </c>
-      <c r="E180">
-        <v>171.142</v>
-      </c>
-      <c r="F180">
-        <v>64.22905432043871</v>
-      </c>
-      <c r="G180">
-        <v>80.9812913009492</v>
-      </c>
-      <c r="H180">
-        <v>1985.28865248712</v>
-      </c>
-      <c r="I180">
-        <v>-724.1926212747787</v>
-      </c>
-      <c r="J180">
-        <v>571.9485328924275</v>
-      </c>
-      <c r="K180">
-        <v>3940.847552388519</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
-      <c r="A181">
-        <v>17</v>
-      </c>
-      <c r="B181" t="s">
-        <v>13</v>
-      </c>
-      <c r="C181" t="s">
-        <v>17</v>
-      </c>
-      <c r="D181" t="s">
-        <v>20</v>
-      </c>
-      <c r="E181">
-        <v>172.142</v>
-      </c>
-      <c r="F181">
-        <v>61.71703061304179</v>
-      </c>
-      <c r="G181">
-        <v>94.60510789764368</v>
-      </c>
-      <c r="H181">
-        <v>2015.159941807143</v>
-      </c>
-      <c r="I181">
-        <v>-681.2794289847327</v>
-      </c>
-      <c r="J181">
-        <v>546.0786075662493</v>
-      </c>
-      <c r="K181">
-        <v>3960.629727802037</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
-      <c r="A182">
-        <v>17</v>
-      </c>
-      <c r="B182" t="s">
-        <v>13</v>
-      </c>
-      <c r="C182" t="s">
-        <v>17</v>
-      </c>
-      <c r="D182" t="s">
-        <v>20</v>
-      </c>
-      <c r="E182">
-        <v>173.142</v>
-      </c>
-      <c r="F182">
-        <v>59.4779460091498</v>
-      </c>
-      <c r="G182">
-        <v>108.2289244943381</v>
-      </c>
-      <c r="H182">
-        <v>2042.826345946037</v>
-      </c>
-      <c r="I182">
-        <v>-637.3095388139573</v>
-      </c>
-      <c r="J182">
-        <v>520.208682240071</v>
-      </c>
-      <c r="K182">
-        <v>3961.648817849597</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
-      <c r="A183">
-        <v>17</v>
-      </c>
-      <c r="B183" t="s">
-        <v>13</v>
-      </c>
-      <c r="C183" t="s">
-        <v>17</v>
-      </c>
-      <c r="D183" t="s">
-        <v>20</v>
-      </c>
-      <c r="E183">
-        <v>174.142</v>
-      </c>
-      <c r="F183">
-        <v>57.46577487616197</v>
-      </c>
-      <c r="G183">
-        <v>121.8527410910326</v>
-      </c>
-      <c r="H183">
-        <v>2068.591107470623</v>
-      </c>
-      <c r="I183">
-        <v>-592.256930549284</v>
-      </c>
-      <c r="J183">
-        <v>494.3387569138926</v>
-      </c>
-      <c r="K183">
-        <v>3943.904822531203</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
-      <c r="A184">
-        <v>17</v>
-      </c>
-      <c r="B184" t="s">
-        <v>13</v>
-      </c>
-      <c r="C184" t="s">
-        <v>17</v>
-      </c>
-      <c r="D184" t="s">
-        <v>20</v>
-      </c>
-      <c r="E184">
-        <v>175.142</v>
-      </c>
-      <c r="F184">
-        <v>55.64465851707914</v>
-      </c>
-      <c r="G184">
-        <v>135.4765576877271</v>
-      </c>
-      <c r="H184">
-        <v>2092.698915517266</v>
-      </c>
-      <c r="I184">
-        <v>-546.0949432537321</v>
-      </c>
-      <c r="J184">
-        <v>468.4688315877144</v>
-      </c>
-      <c r="K184">
-        <v>3907.397741846852</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
-      <c r="A185">
-        <v>17</v>
-      </c>
-      <c r="B185" t="s">
-        <v>13</v>
-      </c>
-      <c r="C185" t="s">
-        <v>17</v>
-      </c>
-      <c r="D185" t="s">
-        <v>20</v>
-      </c>
-      <c r="E185">
-        <v>176.142</v>
-      </c>
-      <c r="F185">
-        <v>53.98619203056976</v>
-      </c>
-      <c r="G185">
-        <v>149.1003742844215</v>
-      </c>
-      <c r="H185">
-        <v>2115.350073347559</v>
-      </c>
-      <c r="I185">
-        <v>-498.7962594892773</v>
-      </c>
-      <c r="J185">
-        <v>442.5989062615361</v>
-      </c>
-      <c r="K185">
-        <v>3852.127575796544</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
-      <c r="A186">
-        <v>17</v>
-      </c>
-      <c r="B186" t="s">
-        <v>13</v>
-      </c>
-      <c r="C186" t="s">
-        <v>17</v>
-      </c>
-      <c r="D186" t="s">
-        <v>20</v>
-      </c>
-      <c r="E186">
-        <v>177.142</v>
-      </c>
-      <c r="F186">
-        <v>52.46754572251105</v>
-      </c>
-      <c r="G186">
-        <v>162.724190881116</v>
-      </c>
-      <c r="H186">
-        <v>2136.710624260978</v>
-      </c>
-      <c r="I186">
-        <v>-450.3328891511139</v>
-      </c>
-      <c r="J186">
-        <v>416.7289809353578</v>
-      </c>
-      <c r="K186">
-        <v>3778.094324380281</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
-      <c r="A187">
-        <v>17</v>
-      </c>
-      <c r="B187" t="s">
-        <v>13</v>
-      </c>
-      <c r="C187" t="s">
-        <v>17</v>
-      </c>
-      <c r="D187" t="s">
-        <v>20</v>
-      </c>
-      <c r="E187">
-        <v>178.142</v>
-      </c>
-      <c r="F187">
-        <v>51.07013402134394</v>
-      </c>
-      <c r="G187">
-        <v>176.3480074778105</v>
-      </c>
-      <c r="H187">
-        <v>2156.91974507405</v>
-      </c>
-      <c r="I187">
-        <v>-400.6761529038567</v>
-      </c>
-      <c r="J187">
-        <v>390.8590556091796</v>
-      </c>
-      <c r="K187">
-        <v>3685.297987598061</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
-      <c r="A188">
-        <v>17</v>
-      </c>
-      <c r="B188" t="s">
-        <v>13</v>
-      </c>
-      <c r="C188" t="s">
-        <v>17</v>
-      </c>
-      <c r="D188" t="s">
-        <v>20</v>
-      </c>
-      <c r="E188">
-        <v>179.142</v>
-      </c>
-      <c r="F188">
-        <v>49.77865295343565</v>
-      </c>
-      <c r="G188">
-        <v>189.971824074505</v>
-      </c>
-      <c r="H188">
-        <v>2176.095246843524</v>
-      </c>
-      <c r="I188">
-        <v>-349.7966652098699</v>
-      </c>
-      <c r="J188">
-        <v>364.9891302830013</v>
-      </c>
-      <c r="K188">
-        <v>3573.738565449885</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
-      <c r="A189">
-        <v>17</v>
-      </c>
-      <c r="B189" t="s">
-        <v>13</v>
-      </c>
-      <c r="C189" t="s">
-        <v>17</v>
-      </c>
-      <c r="D189" t="s">
-        <v>20</v>
-      </c>
-      <c r="E189">
-        <v>180.142</v>
-      </c>
-      <c r="F189">
-        <v>48.58037143844067</v>
-      </c>
-      <c r="G189">
-        <v>203.5956406711994</v>
-      </c>
-      <c r="H189">
-        <v>2194.33773608336</v>
-      </c>
-      <c r="I189">
-        <v>-297.6643169396892</v>
-      </c>
-      <c r="J189">
-        <v>339.119204956823</v>
-      </c>
-      <c r="K189">
-        <v>3443.416057935752</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
-      <c r="A190">
-        <v>17</v>
-      </c>
-      <c r="B190" t="s">
-        <v>13</v>
-      </c>
-      <c r="C190" t="s">
-        <v>17</v>
-      </c>
-      <c r="D190" t="s">
-        <v>20</v>
-      </c>
-      <c r="E190">
-        <v>181.142</v>
-      </c>
-      <c r="F190">
-        <v>47.46460097058447</v>
-      </c>
-      <c r="G190">
-        <v>217.2194572678939</v>
-      </c>
-      <c r="H190">
-        <v>2211.733809791011</v>
-      </c>
-      <c r="I190">
-        <v>-244.2482575542363</v>
-      </c>
-      <c r="J190">
-        <v>313.2492796306448</v>
-      </c>
-      <c r="K190">
-        <v>3294.330465055665</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
-      <c r="A191">
-        <v>17</v>
-      </c>
-      <c r="B191" t="s">
-        <v>13</v>
-      </c>
-      <c r="C191" t="s">
-        <v>17</v>
-      </c>
-      <c r="D191" t="s">
-        <v>20</v>
-      </c>
-      <c r="E191">
-        <v>182.142</v>
-      </c>
-      <c r="F191">
-        <v>46.42229297335853</v>
-      </c>
-      <c r="G191">
-        <v>230.8432738645883</v>
-      </c>
-      <c r="H191">
-        <v>2228.358541585498</v>
-      </c>
-      <c r="I191">
-        <v>-189.5168768482904</v>
-      </c>
-      <c r="J191">
-        <v>287.3793543044665</v>
-      </c>
-      <c r="K191">
-        <v>3126.481786809619</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
-      <c r="A192">
-        <v>17</v>
-      </c>
-      <c r="B192" t="s">
-        <v>13</v>
-      </c>
-      <c r="C192" t="s">
-        <v>17</v>
-      </c>
-      <c r="D192" t="s">
-        <v>20</v>
-      </c>
-      <c r="E192">
-        <v>183.142</v>
-      </c>
-      <c r="F192">
-        <v>45.44572904403779</v>
-      </c>
-      <c r="G192">
-        <v>244.4670904612828</v>
-      </c>
-      <c r="H192">
-        <v>2244.277439704261</v>
-      </c>
-      <c r="I192">
-        <v>-133.4377862444071</v>
-      </c>
-      <c r="J192">
-        <v>261.5094289782882</v>
-      </c>
-      <c r="K192">
-        <v>2939.870023197619</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
-      <c r="A193">
-        <v>17</v>
-      </c>
-      <c r="B193" t="s">
-        <v>13</v>
-      </c>
-      <c r="C193" t="s">
-        <v>17</v>
-      </c>
-      <c r="D193" t="s">
-        <v>20</v>
-      </c>
-      <c r="E193">
-        <v>184.142</v>
-      </c>
-      <c r="F193">
-        <v>44.52827979368718</v>
-      </c>
-      <c r="G193">
-        <v>258.0909070579772</v>
-      </c>
-      <c r="H193">
-        <v>2259.548006023949</v>
-      </c>
-      <c r="I193">
-        <v>-75.97779962622046</v>
-      </c>
-      <c r="J193">
-        <v>235.6395036521099</v>
-      </c>
-      <c r="K193">
-        <v>2734.495174219661</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
-      <c r="A194">
-        <v>17</v>
-      </c>
-      <c r="B194" t="s">
-        <v>13</v>
-      </c>
-      <c r="C194" t="s">
-        <v>17</v>
-      </c>
-      <c r="D194" t="s">
-        <v>20</v>
-      </c>
-      <c r="E194">
-        <v>185.142</v>
-      </c>
-      <c r="F194">
-        <v>43.66421503293159</v>
-      </c>
-      <c r="G194">
-        <v>271.7147236546717</v>
-      </c>
-      <c r="H194">
-        <v>2274.22098985494</v>
-      </c>
-      <c r="I194">
-        <v>-17.10291369977964</v>
-      </c>
-      <c r="J194">
-        <v>209.7695783259316</v>
-      </c>
-      <c r="K194">
-        <v>2510.357239875748</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
-      <c r="A195">
-        <v>17</v>
-      </c>
-      <c r="B195" t="s">
-        <v>13</v>
-      </c>
-      <c r="C195" t="s">
-        <v>17</v>
-      </c>
-      <c r="D195" t="s">
-        <v>20</v>
-      </c>
-      <c r="E195">
-        <v>186.142</v>
-      </c>
-      <c r="F195">
-        <v>42.84855287042304</v>
-      </c>
-      <c r="G195">
-        <v>285.3385402513662</v>
-      </c>
-      <c r="H195">
-        <v>2288.341405524593</v>
-      </c>
-      <c r="I195">
-        <v>43.22171212869808</v>
-      </c>
-      <c r="J195">
-        <v>183.8996529997534</v>
-      </c>
-      <c r="K195">
-        <v>2267.456220165878</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
-      <c r="A196">
-        <v>17</v>
-      </c>
-      <c r="B196" t="s">
-        <v>13</v>
-      </c>
-      <c r="C196" t="s">
-        <v>17</v>
-      </c>
-      <c r="D196" t="s">
-        <v>20</v>
-      </c>
-      <c r="E196">
-        <v>187.142</v>
-      </c>
-      <c r="F196">
-        <v>42.07693863862674</v>
-      </c>
-      <c r="G196">
-        <v>298.9623568480607</v>
-      </c>
-      <c r="H196">
-        <v>2301.949365217606</v>
-      </c>
-      <c r="I196">
-        <v>105.0317763705638</v>
-      </c>
-      <c r="J196">
-        <v>158.0297276735751</v>
-      </c>
-      <c r="K196">
-        <v>2005.792115090053</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
-      <c r="A197">
-        <v>17</v>
-      </c>
-      <c r="B197" t="s">
-        <v>13</v>
-      </c>
-      <c r="C197" t="s">
-        <v>17</v>
-      </c>
-      <c r="D197" t="s">
-        <v>20</v>
-      </c>
-      <c r="E197">
-        <v>188.142</v>
-      </c>
-      <c r="F197">
-        <v>41.3455469234225</v>
-      </c>
-      <c r="G197">
-        <v>312.5861734447551</v>
-      </c>
-      <c r="H197">
-        <v>2315.080765915468</v>
-      </c>
-      <c r="I197">
-        <v>168.3638565801697</v>
-      </c>
-      <c r="J197">
-        <v>132.1598023473969</v>
-      </c>
-      <c r="K197">
-        <v>1725.364924648271</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
-      <c r="A198">
-        <v>17</v>
-      </c>
-      <c r="B198" t="s">
-        <v>13</v>
-      </c>
-      <c r="C198" t="s">
-        <v>17</v>
-      </c>
-      <c r="D198" t="s">
-        <v>20</v>
-      </c>
-      <c r="E198">
-        <v>189.142</v>
-      </c>
-      <c r="F198">
-        <v>40.65100166357441</v>
-      </c>
-      <c r="G198">
-        <v>326.2099900414496</v>
-      </c>
-      <c r="H198">
-        <v>2327.767860071081</v>
-      </c>
-      <c r="I198">
-        <v>233.255431000491</v>
-      </c>
-      <c r="J198">
-        <v>106.2898770212186</v>
-      </c>
-      <c r="K198">
-        <v>1426.174648840532</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
-      <c r="A199">
-        <v>17</v>
-      </c>
-      <c r="B199" t="s">
-        <v>13</v>
-      </c>
-      <c r="C199" t="s">
-        <v>17</v>
-      </c>
-      <c r="D199" t="s">
-        <v>20</v>
-      </c>
-      <c r="E199">
-        <v>190.142</v>
-      </c>
-      <c r="F199">
-        <v>39.99031051024419</v>
-      </c>
-      <c r="G199">
-        <v>339.833806638144</v>
-      </c>
-      <c r="H199">
-        <v>2340.039732860902</v>
-      </c>
-      <c r="I199">
-        <v>299.7449007417595</v>
-      </c>
-      <c r="J199">
-        <v>80.41995169504024</v>
-      </c>
-      <c r="K199">
-        <v>1108.221287666837</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
-      <c r="A200">
-        <v>17</v>
-      </c>
-      <c r="B200" t="s">
-        <v>13</v>
-      </c>
-      <c r="C200" t="s">
-        <v>17</v>
-      </c>
-      <c r="D200" t="s">
-        <v>20</v>
-      </c>
-      <c r="E200">
-        <v>191.142</v>
-      </c>
-      <c r="F200">
-        <v>39.36081053417331</v>
-      </c>
-      <c r="G200">
-        <v>353.4576232348385</v>
-      </c>
-      <c r="H200">
-        <v>2351.922703786781</v>
-      </c>
-      <c r="I200">
-        <v>367.8716125062152</v>
-      </c>
-      <c r="J200">
-        <v>54.55002636886204</v>
-      </c>
-      <c r="K200">
-        <v>771.5048411271871</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
-      <c r="A201">
-        <v>17</v>
-      </c>
-      <c r="B201" t="s">
-        <v>13</v>
-      </c>
-      <c r="C201" t="s">
-        <v>17</v>
-      </c>
-      <c r="D201" t="s">
-        <v>20</v>
-      </c>
-      <c r="E201">
-        <v>192.142</v>
-      </c>
-      <c r="F201">
-        <v>38.76012303338268</v>
-      </c>
-      <c r="G201">
-        <v>367.081439831533</v>
-      </c>
-      <c r="H201">
-        <v>2363.440666576184</v>
-      </c>
-      <c r="I201">
-        <v>437.6758818724464</v>
-      </c>
-      <c r="J201">
-        <v>28.68010104268371</v>
-      </c>
-      <c r="K201">
-        <v>416.0253092215796</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
-      <c r="A202">
-        <v>17</v>
-      </c>
-      <c r="B202" t="s">
-        <v>13</v>
-      </c>
-      <c r="C202" t="s">
-        <v>17</v>
-      </c>
-      <c r="D202" t="s">
-        <v>20</v>
-      </c>
-      <c r="E202">
-        <v>193.142</v>
-      </c>
-      <c r="F202">
-        <v>38.1861156923846</v>
-      </c>
-      <c r="G202">
-        <v>380.7052564282275</v>
-      </c>
-      <c r="H202">
-        <v>2374.615378418236</v>
-      </c>
-      <c r="I202">
-        <v>509.1990171530703</v>
-      </c>
-      <c r="J202">
-        <v>2.810175716505394</v>
-      </c>
-      <c r="K202">
-        <v>41.78269195001604</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
-      <c r="A203">
-        <v>17</v>
-      </c>
-      <c r="B203" t="s">
-        <v>13</v>
-      </c>
-      <c r="C203" t="s">
-        <v>17</v>
-      </c>
-      <c r="D203" t="s">
-        <v>20</v>
-      </c>
-      <c r="E203">
-        <v>194.142</v>
-      </c>
-      <c r="F203">
-        <v>37.63687072052338</v>
-      </c>
-      <c r="G203">
-        <v>394.3290730249219</v>
-      </c>
-      <c r="H203">
-        <v>2385.466707335995</v>
-      </c>
-      <c r="I203">
-        <v>582.4833438399011</v>
-      </c>
-      <c r="J203">
-        <v>-23.05974960967281</v>
-      </c>
-      <c r="K203">
-        <v>-351.2230106875026</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
-      <c r="A204">
-        <v>17</v>
-      </c>
-      <c r="B204" t="s">
-        <v>13</v>
-      </c>
-      <c r="C204" t="s">
-        <v>17</v>
-      </c>
-      <c r="D204" t="s">
-        <v>20</v>
-      </c>
-      <c r="E204">
-        <v>195.142</v>
-      </c>
-      <c r="F204">
-        <v>37.11065788435409</v>
-      </c>
-      <c r="G204">
-        <v>407.9528896216164</v>
-      </c>
-      <c r="H204">
-        <v>2396.012844762071</v>
-      </c>
-      <c r="I204">
-        <v>657.5722296510511</v>
-      </c>
-      <c r="J204">
-        <v>-48.92967493585112</v>
-      </c>
-      <c r="K204">
-        <v>-762.9917986909786</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
-      <c r="A205">
-        <v>17</v>
-      </c>
-      <c r="B205" t="s">
-        <v>13</v>
-      </c>
-      <c r="C205" t="s">
-        <v>17</v>
-      </c>
-      <c r="D205" t="s">
-        <v>20</v>
-      </c>
-      <c r="E205">
-        <v>196.142</v>
-      </c>
-      <c r="F205">
-        <v>36.60591156996474</v>
-      </c>
-      <c r="G205">
-        <v>421.5767062183109</v>
-      </c>
-      <c r="H205">
-        <v>2406.270489030822</v>
-      </c>
-      <c r="I205">
-        <v>734.5101101947929</v>
-      </c>
-      <c r="J205">
-        <v>-74.79960026202944</v>
-      </c>
-      <c r="K205">
-        <v>-1193.523672060412</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
-      <c r="A206">
-        <v>17</v>
-      </c>
-      <c r="B206" t="s">
-        <v>13</v>
-      </c>
-      <c r="C206" t="s">
-        <v>17</v>
-      </c>
-      <c r="D206" t="s">
-        <v>20</v>
-      </c>
-      <c r="E206">
-        <v>197.142</v>
-      </c>
-      <c r="F206">
-        <v>36.12121118249603</v>
-      </c>
-      <c r="G206">
-        <v>435.2005228150053</v>
-      </c>
-      <c r="H206">
-        <v>2416.255004435076</v>
-      </c>
-      <c r="I206">
-        <v>813.342515265372</v>
-      </c>
-      <c r="J206">
-        <v>-100.6695255882078</v>
-      </c>
-      <c r="K206">
-        <v>-1642.818630795801</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11">
-      <c r="A207">
-        <v>17</v>
-      </c>
-      <c r="B207" t="s">
-        <v>13</v>
-      </c>
-      <c r="C207" t="s">
-        <v>17</v>
-      </c>
-      <c r="D207" t="s">
-        <v>20</v>
-      </c>
-      <c r="E207">
-        <v>198.142</v>
-      </c>
-      <c r="F207">
-        <v>35.65526432394758</v>
-      </c>
-      <c r="G207">
-        <v>448.8243394116997</v>
-      </c>
-      <c r="H207">
-        <v>2425.980559651142</v>
-      </c>
-      <c r="I207">
-        <v>894.1160957863308</v>
-      </c>
-      <c r="J207">
-        <v>-126.5394509143858</v>
-      </c>
-      <c r="K207">
-        <v>-2110.876674897142</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11">
-      <c r="A208">
-        <v>17</v>
-      </c>
-      <c r="B208" t="s">
-        <v>13</v>
-      </c>
-      <c r="C208" t="s">
-        <v>17</v>
-      </c>
-      <c r="D208" t="s">
-        <v>20</v>
-      </c>
-      <c r="E208">
-        <v>199.142</v>
-      </c>
-      <c r="F208">
-        <v>35.20689229563538</v>
-      </c>
-      <c r="G208">
-        <v>462.4481560083943</v>
-      </c>
-      <c r="H208">
-        <v>2435.460248662511</v>
-      </c>
-      <c r="I208">
-        <v>976.8786514172878</v>
-      </c>
-      <c r="J208">
-        <v>-152.4093762405642</v>
-      </c>
-      <c r="K208">
-        <v>-2597.697804364443</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
-      <c r="A209">
-        <v>17</v>
-      </c>
-      <c r="B209" t="s">
-        <v>13</v>
-      </c>
-      <c r="C209" t="s">
-        <v>17</v>
-      </c>
-      <c r="D209" t="s">
-        <v>20</v>
-      </c>
-      <c r="E209">
-        <v>200.142</v>
-      </c>
-      <c r="F209">
-        <v>34.77501755501982</v>
-      </c>
-      <c r="G209">
-        <v>476.0719726050887</v>
-      </c>
-      <c r="H209">
-        <v>2444.706196772158</v>
-      </c>
-      <c r="I209">
-        <v>1061.679158840501</v>
-      </c>
-      <c r="J209">
-        <v>-178.2793015667425</v>
-      </c>
-      <c r="K209">
-        <v>-3103.282019197701</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
-      <c r="A210">
-        <v>17</v>
-      </c>
-      <c r="B210" t="s">
-        <v>13</v>
-      </c>
-      <c r="C210" t="s">
-        <v>17</v>
-      </c>
-      <c r="D210" t="s">
-        <v>20</v>
-      </c>
-      <c r="E210">
-        <v>201.142</v>
-      </c>
-      <c r="F210">
-        <v>34.35865282303798</v>
-      </c>
-      <c r="G210">
-        <v>489.6957892017832</v>
-      </c>
-      <c r="H210">
-        <v>2453.729653856948</v>
-      </c>
-      <c r="I210">
-        <v>1148.567800743975</v>
-      </c>
-      <c r="J210">
-        <v>-204.1492268929208</v>
-      </c>
-      <c r="K210">
-        <v>-3627.629319396915</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
-      <c r="A211">
-        <v>17</v>
-      </c>
-      <c r="B211" t="s">
-        <v>13</v>
-      </c>
-      <c r="C211" t="s">
-        <v>17</v>
-      </c>
-      <c r="D211" t="s">
-        <v>20</v>
-      </c>
-      <c r="E211">
-        <v>202.142</v>
-      </c>
-      <c r="F211">
-        <v>33.95689159130789</v>
-      </c>
-      <c r="G211">
-        <v>503.3196057984777</v>
-      </c>
-      <c r="H211">
-        <v>2462.541076663336</v>
-      </c>
-      <c r="I211">
-        <v>1237.595995518238</v>
-      </c>
-      <c r="J211">
-        <v>-230.0191522190991</v>
-      </c>
-      <c r="K211">
-        <v>-4170.739704962084</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11">
-      <c r="A212">
-        <v>17</v>
-      </c>
-      <c r="B212" t="s">
-        <v>13</v>
-      </c>
-      <c r="C212" t="s">
-        <v>17</v>
-      </c>
-      <c r="D212" t="s">
-        <v>20</v>
-      </c>
-      <c r="E212">
-        <v>203.142</v>
-      </c>
-      <c r="F212">
-        <v>33.5688998214745</v>
-      </c>
-      <c r="G212">
-        <v>516.9434223951721</v>
-      </c>
-      <c r="H212">
-        <v>2471.150201654286</v>
-      </c>
-      <c r="I212">
-        <v>1328.816427684378</v>
-      </c>
-      <c r="J212">
-        <v>-255.8890775452772</v>
-      </c>
-      <c r="K212">
-        <v>-4732.613175893206</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11">
-      <c r="A213">
-        <v>17</v>
-      </c>
-      <c r="B213" t="s">
-        <v>13</v>
-      </c>
-      <c r="C213" t="s">
-        <v>17</v>
-      </c>
-      <c r="D213" t="s">
-        <v>20</v>
-      </c>
-      <c r="E213">
-        <v>204.142</v>
-      </c>
-      <c r="F213">
-        <v>33.19390866373867</v>
-      </c>
-      <c r="G213">
-        <v>530.5672389918666</v>
-      </c>
-      <c r="H213">
-        <v>2479.56610968009</v>
-      </c>
-      <c r="I213">
-        <v>1422.283079071352</v>
-      </c>
-      <c r="J213">
-        <v>-281.7590028714556</v>
-      </c>
-      <c r="K213">
-        <v>-5313.249732190289</v>
+        <v>3980066.987875025</v>
       </c>
     </row>
   </sheetData>
